--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1094047.964179182</v>
+        <v>1088876.011154961</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16665871.46213527</v>
+        <v>16665871.46213526</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8914579.287706595</v>
+        <v>8914579.287706597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6523138.326000067</v>
+        <v>6523138.326000066</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>281.8523431091342</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>55.27060472689222</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="W11" t="n">
-        <v>319.9958482165467</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>319.9958482165467</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>319.9958482165467</v>
+        <v>218.0194367161226</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>8.31090716528939</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>76.46594728151749</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>9.862643306510179</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>112.5246600068256</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.6446426827978</v>
+        <v>161.9244773458052</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8879308598484</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
@@ -1530,25 +1530,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.64614581911033</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.315647914810835</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1615,67 +1615,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>281.8523431091344</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>319.9958482165468</v>
       </c>
-      <c r="F14" t="n">
+      <c r="X14" t="n">
         <v>319.9958482165468</v>
       </c>
-      <c r="G14" t="n">
+      <c r="Y14" t="n">
         <v>319.9958482165468</v>
-      </c>
-      <c r="H14" t="n">
-        <v>226.5817383822422</v>
-      </c>
-      <c r="I14" t="n">
-        <v>55.27060472689222</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.7255881187514</v>
+        <v>0.5599941725542384</v>
       </c>
       <c r="H15" t="n">
-        <v>76.46594728151749</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.862643306510179</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>3.586074143585769</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>97.56334397166177</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H16" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.182400879764</v>
+        <v>94.1168839474216</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.92859893709536</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I17" t="n">
         <v>55.2706047268922</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.8059248254551</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T17" t="n">
         <v>211.9907646989572</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>57.92916532588661</v>
       </c>
     </row>
     <row r="18">
@@ -1928,22 +1928,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>44.19787093748354</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>42.5656378565813</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.862643306510172</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>112.5246600068256</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>170.6446426827978</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>25.24982546525667</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5325639126531</v>
+        <v>257.4554858158491</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.39039112784816</v>
+        <v>386.8335868032203</v>
       </c>
       <c r="H20" t="n">
-        <v>299.1435630876019</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>55.2706047268922</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>26.24490671357555</v>
       </c>
       <c r="F21" t="n">
-        <v>14.35036878905393</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>117.7255881187514</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H22" t="n">
-        <v>104.7839456988025</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>79.92859893709533</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>272.4804120947143</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>4.546212764732799</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>406.9123771362669</v>
       </c>
       <c r="H23" t="n">
-        <v>299.1435630876019</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>55.2706047268922</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>111.0728281183063</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.90183513468382</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>104.838788017367</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>184.2250660264325</v>
       </c>
       <c r="T25" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -2541,7 +2541,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>228.7184175712934</v>
       </c>
       <c r="C26" t="n">
-        <v>129.0183009018361</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>55.2706047268922</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>211.9907646989572</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>76.46594728151749</v>
       </c>
       <c r="I27" t="n">
-        <v>9.862643306510018</v>
+        <v>9.862643306510172</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>161.0453946993971</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -2733,7 +2733,7 @@
         <v>145.4738572861381</v>
       </c>
       <c r="I28" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>79.92859893709533</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>23.87952334217825</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -2800,19 +2800,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>216.0573739265683</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>55.2706047268922</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>230.7863089516314</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -2961,16 +2961,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.666962735527829</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>130.0215207928396</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -3031,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>55.2706047268922</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>116.5673851837092</v>
       </c>
       <c r="T32" t="n">
-        <v>170.2476861181583</v>
+        <v>64.41907611268475</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.97323619758879</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.36568967040751</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>229.301066964029</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>237.488431009167</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>299.1435630876019</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>55.2706047268922</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>152.6990564210784</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
@@ -3362,10 +3362,10 @@
         <v>117.7255881187514</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I36" t="n">
-        <v>9.862643306510172</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>112.5246600068256</v>
       </c>
       <c r="T36" t="n">
-        <v>170.6446426827978</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>207.8879308598484</v>
@@ -3407,13 +3407,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>150.3385519951997</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>33.1378504115481</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>93.90183513468374</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>79.92859893709533</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>95.01590134425753</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T37" t="n">
         <v>229.301066964029</v>
@@ -3505,22 +3505,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>41.73336214124858</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H38" t="n">
-        <v>299.1435630876019</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>55.2706047268922</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T38" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>20.07398445530945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3587,16 +3587,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H39" t="n">
         <v>76.46594728151749</v>
@@ -3635,7 +3635,7 @@
         <v>112.5246600068256</v>
       </c>
       <c r="T39" t="n">
-        <v>170.6446426827978</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>207.8879308598484</v>
@@ -3644,13 +3644,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>177.5812556538957</v>
       </c>
       <c r="X39" t="n">
-        <v>158.714625560478</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.2970611643308</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H40" t="n">
-        <v>89.89605966318457</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>281.8523431091338</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>319.9958482165462</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>319.9958482165462</v>
       </c>
       <c r="F41" t="n">
-        <v>319.9958482165463</v>
+        <v>319.9958482165462</v>
       </c>
       <c r="G41" t="n">
-        <v>319.9958482165463</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>20.26433923891511</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>85.79256980497453</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>88.50787630468005</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.6446426827978</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8879308598484</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3900,25 +3900,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>156.8633248852095</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>54.34524636536995</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>319.9958482165462</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>319.9958482165463</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>319.9958482165462</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>281.8523431091337</v>
       </c>
       <c r="H44" t="n">
-        <v>273.2900414430137</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2.926299202954396e-12</v>
       </c>
       <c r="S44" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>319.9958482165462</v>
       </c>
       <c r="Y44" t="n">
-        <v>319.9958482165463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>76.46594728151749</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>9.862643306510172</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>112.5246600068256</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.6446426827978</v>
+        <v>60.7451858464363</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8879308598484</v>
       </c>
       <c r="V45" t="n">
-        <v>103.1210813773881</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I46" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>83.00720622680835</v>
+        <v>130.044291111296</v>
       </c>
       <c r="T46" t="n">
         <v>229.301066964029</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>310.2990043311966</v>
+        <v>404.6566910325147</v>
       </c>
       <c r="C11" t="n">
-        <v>25.59966785732373</v>
+        <v>404.6566910325147</v>
       </c>
       <c r="D11" t="n">
-        <v>25.59966785732373</v>
+        <v>404.6566910325147</v>
       </c>
       <c r="E11" t="n">
-        <v>25.59966785732373</v>
+        <v>404.6566910325147</v>
       </c>
       <c r="F11" t="n">
-        <v>25.59966785732373</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="G11" t="n">
-        <v>25.59966785732373</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="H11" t="n">
-        <v>25.59966785732373</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="I11" t="n">
-        <v>25.59966785732373</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J11" t="n">
-        <v>87.12469248054236</v>
+        <v>87.12469248054286</v>
       </c>
       <c r="K11" t="n">
-        <v>212.3147925332968</v>
+        <v>212.3147925332973</v>
       </c>
       <c r="L11" t="n">
-        <v>391.6103269222908</v>
+        <v>391.6103269222913</v>
       </c>
       <c r="M11" t="n">
-        <v>611.6962898196846</v>
+        <v>611.696289819685</v>
       </c>
       <c r="N11" t="n">
-        <v>838.3424491357898</v>
+        <v>838.3424491357903</v>
       </c>
       <c r="O11" t="n">
-        <v>1043.690070638729</v>
+        <v>1043.69007063873</v>
       </c>
       <c r="P11" t="n">
         <v>1196.523864148037</v>
@@ -5068,25 +5068,25 @@
         <v>1279.983392866187</v>
       </c>
       <c r="S11" t="n">
-        <v>1279.983392866187</v>
+        <v>1162.238559347289</v>
       </c>
       <c r="T11" t="n">
-        <v>1279.983392866187</v>
+        <v>948.1064737927869</v>
       </c>
       <c r="U11" t="n">
-        <v>1279.983392866187</v>
+        <v>948.1064737927869</v>
       </c>
       <c r="V11" t="n">
-        <v>1279.983392866187</v>
+        <v>624.8783442811234</v>
       </c>
       <c r="W11" t="n">
-        <v>956.7552633545233</v>
+        <v>624.8783442811234</v>
       </c>
       <c r="X11" t="n">
-        <v>633.5271338428599</v>
+        <v>624.8783442811234</v>
       </c>
       <c r="Y11" t="n">
-        <v>310.2990043311966</v>
+        <v>404.6566910325147</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>364.541661723756</v>
+        <v>322.6626551525158</v>
       </c>
       <c r="C12" t="n">
-        <v>364.541661723756</v>
+        <v>172.0084247126079</v>
       </c>
       <c r="D12" t="n">
-        <v>364.541661723756</v>
+        <v>172.0084247126079</v>
       </c>
       <c r="E12" t="n">
-        <v>356.1468060012415</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7149998843733</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="G12" t="n">
-        <v>112.800264410887</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="H12" t="n">
-        <v>35.56193382349564</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="I12" t="n">
-        <v>25.59966785732373</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J12" t="n">
-        <v>50.01195051225358</v>
+        <v>50.01195051225359</v>
       </c>
       <c r="K12" t="n">
         <v>142.5370659719023</v>
       </c>
       <c r="L12" t="n">
-        <v>297.0581537666971</v>
+        <v>297.0581537666972</v>
       </c>
       <c r="M12" t="n">
-        <v>489.9589392463364</v>
+        <v>613.8540435010785</v>
       </c>
       <c r="N12" t="n">
-        <v>697.330853718656</v>
+        <v>821.2259579733982</v>
       </c>
       <c r="O12" t="n">
-        <v>872.5927751897298</v>
+        <v>1052.465339398123</v>
       </c>
       <c r="P12" t="n">
         <v>1180.561989684465</v>
@@ -5147,25 +5147,25 @@
         <v>1279.983392866187</v>
       </c>
       <c r="S12" t="n">
-        <v>1166.322120132019</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="T12" t="n">
-        <v>993.9537941897993</v>
+        <v>1116.423314739111</v>
       </c>
       <c r="U12" t="n">
-        <v>783.9659852404575</v>
+        <v>1116.423314739111</v>
       </c>
       <c r="V12" t="n">
-        <v>783.9659852404575</v>
+        <v>893.8833131101785</v>
       </c>
       <c r="W12" t="n">
-        <v>553.8487393737444</v>
+        <v>663.7660672434654</v>
       </c>
       <c r="X12" t="n">
-        <v>364.541661723756</v>
+        <v>474.4589895934771</v>
       </c>
       <c r="Y12" t="n">
-        <v>364.541661723756</v>
+        <v>474.4589895934771</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>871.6633129915288</v>
+        <v>185.517720316112</v>
       </c>
       <c r="C13" t="n">
-        <v>701.458195057518</v>
+        <v>185.517720316112</v>
       </c>
       <c r="D13" t="n">
-        <v>545.8250819600328</v>
+        <v>185.517720316112</v>
       </c>
       <c r="E13" t="n">
-        <v>390.2662698192353</v>
+        <v>29.95890817531449</v>
       </c>
       <c r="F13" t="n">
-        <v>232.9403350322082</v>
+        <v>29.95890817531449</v>
       </c>
       <c r="G13" t="n">
-        <v>65.64627979581903</v>
+        <v>29.95890817531449</v>
       </c>
       <c r="H13" t="n">
-        <v>25.59966785732373</v>
+        <v>29.95890817531449</v>
       </c>
       <c r="I13" t="n">
-        <v>25.59966785732373</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J13" t="n">
-        <v>25.59966785732373</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="K13" t="n">
-        <v>51.89449211335228</v>
+        <v>71.71464929594401</v>
       </c>
       <c r="L13" t="n">
-        <v>355.9075117371453</v>
+        <v>375.727668919737</v>
       </c>
       <c r="M13" t="n">
-        <v>672.7034014715265</v>
+        <v>433.818446518313</v>
       </c>
       <c r="N13" t="n">
-        <v>959.1184726348988</v>
+        <v>750.6143362526943</v>
       </c>
       <c r="O13" t="n">
-        <v>1254.814427419844</v>
+        <v>1046.310291037639</v>
       </c>
       <c r="P13" t="n">
         <v>1279.983392866187</v>
@@ -5226,25 +5226,25 @@
         <v>1279.983392866187</v>
       </c>
       <c r="S13" t="n">
-        <v>1279.983392866187</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="T13" t="n">
-        <v>1279.983392866187</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="U13" t="n">
-        <v>1279.983392866187</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="V13" t="n">
-        <v>1279.983392866187</v>
+        <v>827.9181224077869</v>
       </c>
       <c r="W13" t="n">
-        <v>1279.983392866187</v>
+        <v>827.9181224077869</v>
       </c>
       <c r="X13" t="n">
-        <v>1279.983392866187</v>
+        <v>593.8378001907699</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.87133168283</v>
+        <v>370.7257390074133</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1279.983392866187</v>
+        <v>310.2990043311969</v>
       </c>
       <c r="C14" t="n">
-        <v>1279.983392866187</v>
+        <v>310.2990043311969</v>
       </c>
       <c r="D14" t="n">
-        <v>1279.983392866187</v>
+        <v>310.2990043311969</v>
       </c>
       <c r="E14" t="n">
-        <v>956.7552633545238</v>
+        <v>310.2990043311969</v>
       </c>
       <c r="F14" t="n">
-        <v>633.5271338428604</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="G14" t="n">
-        <v>310.299004331197</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="H14" t="n">
-        <v>81.42856152085125</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="I14" t="n">
-        <v>25.59966785732374</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J14" t="n">
-        <v>87.12469248054288</v>
+        <v>87.12469248054276</v>
       </c>
       <c r="K14" t="n">
-        <v>212.3147925332974</v>
+        <v>212.3147925332971</v>
       </c>
       <c r="L14" t="n">
-        <v>391.6103269222913</v>
+        <v>391.610326922291</v>
       </c>
       <c r="M14" t="n">
-        <v>611.696289819685</v>
+        <v>611.6962898196848</v>
       </c>
       <c r="N14" t="n">
         <v>838.34244913579</v>
@@ -5296,7 +5296,7 @@
         <v>1043.69007063873</v>
       </c>
       <c r="P14" t="n">
-        <v>1196.523864148037</v>
+        <v>1196.523864148038</v>
       </c>
       <c r="Q14" t="n">
         <v>1279.983392866187</v>
@@ -5317,13 +5317,13 @@
         <v>1279.983392866187</v>
       </c>
       <c r="W14" t="n">
-        <v>1279.983392866187</v>
+        <v>956.7552633545239</v>
       </c>
       <c r="X14" t="n">
-        <v>1279.983392866187</v>
+        <v>633.5271338428604</v>
       </c>
       <c r="Y14" t="n">
-        <v>1279.983392866187</v>
+        <v>310.2990043311969</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>492.5932968903538</v>
+        <v>306.9085163550989</v>
       </c>
       <c r="C15" t="n">
-        <v>492.5932968903538</v>
+        <v>156.2542859151911</v>
       </c>
       <c r="D15" t="n">
-        <v>492.5932968903538</v>
+        <v>26.16531853667146</v>
       </c>
       <c r="E15" t="n">
-        <v>356.1468060012415</v>
+        <v>26.16531853667146</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7149998843733</v>
+        <v>26.16531853667146</v>
       </c>
       <c r="G15" t="n">
-        <v>112.8002644108871</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="H15" t="n">
-        <v>35.56193382349564</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="I15" t="n">
-        <v>25.59966785732374</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J15" t="n">
-        <v>229.8845147206473</v>
+        <v>244.746945491981</v>
       </c>
       <c r="K15" t="n">
-        <v>322.4096301802959</v>
+        <v>337.2720609516297</v>
       </c>
       <c r="L15" t="n">
-        <v>476.9307179750908</v>
+        <v>491.7931487464245</v>
       </c>
       <c r="M15" t="n">
-        <v>669.8315034547301</v>
+        <v>684.6939342260639</v>
       </c>
       <c r="N15" t="n">
-        <v>877.2034179270497</v>
+        <v>892.0658486983835</v>
       </c>
       <c r="O15" t="n">
-        <v>1052.465339398123</v>
+        <v>1067.327770169457</v>
       </c>
       <c r="P15" t="n">
-        <v>1180.561989684465</v>
+        <v>1195.424420455799</v>
       </c>
       <c r="Q15" t="n">
-        <v>1233.743730397333</v>
+        <v>1248.606161168667</v>
       </c>
       <c r="R15" t="n">
         <v>1279.983392866187</v>
@@ -5387,22 +5387,22 @@
         <v>1279.983392866187</v>
       </c>
       <c r="T15" t="n">
-        <v>1276.361095751454</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="U15" t="n">
-        <v>1276.361095751454</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="V15" t="n">
-        <v>1053.821094122521</v>
+        <v>1057.443391237254</v>
       </c>
       <c r="W15" t="n">
-        <v>823.703848255808</v>
+        <v>827.3261453705413</v>
       </c>
       <c r="X15" t="n">
-        <v>823.703848255808</v>
+        <v>638.019067720553</v>
       </c>
       <c r="Y15" t="n">
-        <v>644.3896313313152</v>
+        <v>458.7048507960603</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1014.039415652567</v>
+        <v>445.2872174235901</v>
       </c>
       <c r="C16" t="n">
-        <v>843.8342977185566</v>
+        <v>445.2872174235901</v>
       </c>
       <c r="D16" t="n">
-        <v>688.2011846210714</v>
+        <v>445.2872174235901</v>
       </c>
       <c r="E16" t="n">
-        <v>532.6423724802739</v>
+        <v>445.2872174235901</v>
       </c>
       <c r="F16" t="n">
-        <v>375.3164376932469</v>
+        <v>287.9612826365631</v>
       </c>
       <c r="G16" t="n">
-        <v>276.767605398639</v>
+        <v>120.6672274001739</v>
       </c>
       <c r="H16" t="n">
-        <v>129.8243152106207</v>
+        <v>120.6672274001739</v>
       </c>
       <c r="I16" t="n">
-        <v>25.59966785732374</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J16" t="n">
-        <v>62.34717989579779</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="K16" t="n">
-        <v>253.4970768945077</v>
+        <v>51.89449211335229</v>
       </c>
       <c r="L16" t="n">
-        <v>557.5100965183008</v>
+        <v>325.5266931661367</v>
       </c>
       <c r="M16" t="n">
-        <v>615.6008741168768</v>
+        <v>642.3225829005181</v>
       </c>
       <c r="N16" t="n">
-        <v>677.4177747022968</v>
+        <v>959.1184726348995</v>
       </c>
       <c r="O16" t="n">
-        <v>973.1137294872417</v>
+        <v>1254.814427419844</v>
       </c>
       <c r="P16" t="n">
-        <v>1206.78683131579</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="Q16" t="n">
         <v>1279.983392866187</v>
       </c>
       <c r="R16" t="n">
-        <v>1199.247434343869</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="S16" t="n">
-        <v>1199.247434343869</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="T16" t="n">
-        <v>1199.247434343869</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="U16" t="n">
-        <v>1199.247434343869</v>
+        <v>994.5969646715882</v>
       </c>
       <c r="V16" t="n">
-        <v>1199.247434343869</v>
+        <v>728.6176194924125</v>
       </c>
       <c r="W16" t="n">
-        <v>1199.247434343869</v>
+        <v>445.2872174235901</v>
       </c>
       <c r="X16" t="n">
-        <v>1199.247434343869</v>
+        <v>445.2872174235901</v>
       </c>
       <c r="Y16" t="n">
-        <v>1199.247434343869</v>
+        <v>445.2872174235901</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.65424186760265</v>
+        <v>805.8420602755509</v>
       </c>
       <c r="C17" t="n">
-        <v>92.65424186760265</v>
+        <v>805.8420602755509</v>
       </c>
       <c r="D17" t="n">
-        <v>92.65424186760265</v>
+        <v>805.8420602755509</v>
       </c>
       <c r="E17" t="n">
-        <v>92.65424186760265</v>
+        <v>805.8420602755509</v>
       </c>
       <c r="F17" t="n">
-        <v>92.65424186760265</v>
+        <v>805.8420602755509</v>
       </c>
       <c r="G17" t="n">
-        <v>92.65424186760265</v>
+        <v>394.8194571076046</v>
       </c>
       <c r="H17" t="n">
         <v>92.65424186760265</v>
@@ -5542,25 +5542,25 @@
         <v>1841.267410203758</v>
       </c>
       <c r="S17" t="n">
-        <v>1730.352334622491</v>
+        <v>1723.52257668486</v>
       </c>
       <c r="T17" t="n">
-        <v>1516.220249067988</v>
+        <v>1509.390491130358</v>
       </c>
       <c r="U17" t="n">
-        <v>1260.638731690111</v>
+        <v>1253.808973752481</v>
       </c>
       <c r="V17" t="n">
-        <v>1260.638731690111</v>
+        <v>1253.808973752481</v>
       </c>
       <c r="W17" t="n">
-        <v>889.6396966583984</v>
+        <v>1253.808973752481</v>
       </c>
       <c r="X17" t="n">
-        <v>889.6396966583984</v>
+        <v>864.3563686855374</v>
       </c>
       <c r="Y17" t="n">
-        <v>493.1489875789995</v>
+        <v>805.8420602755509</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>372.1751260669407</v>
+        <v>485.8363988011081</v>
       </c>
       <c r="C18" t="n">
-        <v>221.5208956270329</v>
+        <v>335.1821683612003</v>
       </c>
       <c r="D18" t="n">
-        <v>91.43192824851326</v>
+        <v>335.1821683612003</v>
       </c>
       <c r="E18" t="n">
-        <v>46.78761417024706</v>
+        <v>198.735677472088</v>
       </c>
       <c r="F18" t="n">
-        <v>46.78761417024706</v>
+        <v>155.7400836775614</v>
       </c>
       <c r="G18" t="n">
-        <v>46.78761417024706</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="H18" t="n">
-        <v>46.78761417024706</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I18" t="n">
         <v>36.82534820407517</v>
       </c>
       <c r="J18" t="n">
-        <v>61.23763085900504</v>
+        <v>255.9726258387325</v>
       </c>
       <c r="K18" t="n">
-        <v>516.9513148844353</v>
+        <v>348.4977412983812</v>
       </c>
       <c r="L18" t="n">
-        <v>972.6649989098655</v>
+        <v>503.0188290931761</v>
       </c>
       <c r="M18" t="n">
-        <v>1165.565784389505</v>
+        <v>695.9196145728155</v>
       </c>
       <c r="N18" t="n">
-        <v>1372.937698861825</v>
+        <v>903.2915290451351</v>
       </c>
       <c r="O18" t="n">
-        <v>1548.199620332898</v>
+        <v>1289.305993556449</v>
       </c>
       <c r="P18" t="n">
-        <v>1676.29627061924</v>
+        <v>1417.402643842791</v>
       </c>
       <c r="Q18" t="n">
-        <v>1841.267410203758</v>
+        <v>1795.027747734904</v>
       </c>
       <c r="R18" t="n">
         <v>1841.267410203758</v>
       </c>
       <c r="S18" t="n">
-        <v>1727.606137469591</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T18" t="n">
-        <v>1555.237811527371</v>
+        <v>1668.899084261538</v>
       </c>
       <c r="U18" t="n">
-        <v>1345.250002578029</v>
+        <v>1458.911275312196</v>
       </c>
       <c r="V18" t="n">
-        <v>1122.710000949096</v>
+        <v>1236.371273683264</v>
       </c>
       <c r="W18" t="n">
-        <v>892.5927550823831</v>
+        <v>1006.25402781655</v>
       </c>
       <c r="X18" t="n">
-        <v>703.2856774323948</v>
+        <v>816.9469501665621</v>
       </c>
       <c r="Y18" t="n">
-        <v>523.9714605079021</v>
+        <v>637.6327332420694</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>638.1181499761367</v>
+        <v>612.6132757688067</v>
       </c>
       <c r="C19" t="n">
-        <v>638.1181499761367</v>
+        <v>612.6132757688067</v>
       </c>
       <c r="D19" t="n">
-        <v>638.1181499761367</v>
+        <v>612.6132757688067</v>
       </c>
       <c r="E19" t="n">
         <v>612.6132757688067</v>
@@ -5673,16 +5673,16 @@
         <v>36.82534820407517</v>
       </c>
       <c r="J19" t="n">
-        <v>73.57286024254923</v>
+        <v>73.57286024254915</v>
       </c>
       <c r="K19" t="n">
-        <v>264.7227572412592</v>
+        <v>264.722757241259</v>
       </c>
       <c r="L19" t="n">
-        <v>568.7357768650519</v>
+        <v>568.7357768650521</v>
       </c>
       <c r="M19" t="n">
-        <v>902.5168747721757</v>
+        <v>902.5168747721759</v>
       </c>
       <c r="N19" t="n">
         <v>1229.689057252183</v>
@@ -5700,25 +5700,25 @@
         <v>1841.267410203758</v>
       </c>
       <c r="S19" t="n">
-        <v>1655.181484924534</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T19" t="n">
-        <v>1423.564245566929</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="U19" t="n">
-        <v>1138.177817372329</v>
+        <v>1581.211363925123</v>
       </c>
       <c r="V19" t="n">
-        <v>872.1984721931536</v>
+        <v>1315.232018745947</v>
       </c>
       <c r="W19" t="n">
-        <v>872.1984721931536</v>
+        <v>1031.901616677125</v>
       </c>
       <c r="X19" t="n">
-        <v>638.1181499761367</v>
+        <v>797.821294460108</v>
       </c>
       <c r="Y19" t="n">
-        <v>638.1181499761367</v>
+        <v>797.821294460108</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>830.1498698584603</v>
       </c>
       <c r="D20" t="n">
-        <v>444.708741075128</v>
+        <v>830.1498698584603</v>
       </c>
       <c r="E20" t="n">
-        <v>444.708741075128</v>
+        <v>427.5663449750048</v>
       </c>
       <c r="F20" t="n">
-        <v>444.708741075128</v>
+        <v>427.5663449750048</v>
       </c>
       <c r="G20" t="n">
-        <v>394.8194571076046</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="H20" t="n">
-        <v>92.65424186760265</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I20" t="n">
         <v>36.82534820407517</v>
@@ -5816,7 +5816,7 @@
         <v>393.8824931293824</v>
       </c>
       <c r="E21" t="n">
-        <v>257.4360022402701</v>
+        <v>367.3724863479929</v>
       </c>
       <c r="F21" t="n">
         <v>242.9406802311247</v>
@@ -5834,22 +5834,22 @@
         <v>255.9726258387325</v>
       </c>
       <c r="K21" t="n">
-        <v>711.6863098641627</v>
+        <v>348.4977412983812</v>
       </c>
       <c r="L21" t="n">
-        <v>866.2073976589576</v>
+        <v>713.7713721334162</v>
       </c>
       <c r="M21" t="n">
-        <v>1059.108183138597</v>
+        <v>906.6721576130556</v>
       </c>
       <c r="N21" t="n">
-        <v>1266.480097610917</v>
+        <v>1114.044072085375</v>
       </c>
       <c r="O21" t="n">
-        <v>1441.74201908199</v>
+        <v>1289.305993556449</v>
       </c>
       <c r="P21" t="n">
-        <v>1741.846007022036</v>
+        <v>1417.402643842791</v>
       </c>
       <c r="Q21" t="n">
         <v>1795.027747734904</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>417.0974828841128</v>
+        <v>374.3245213744751</v>
       </c>
       <c r="C22" t="n">
-        <v>246.892364950102</v>
+        <v>204.1194034404644</v>
       </c>
       <c r="D22" t="n">
-        <v>246.892364950102</v>
+        <v>204.1194034404644</v>
       </c>
       <c r="E22" t="n">
-        <v>246.892364950102</v>
+        <v>204.1194034404644</v>
       </c>
       <c r="F22" t="n">
-        <v>246.892364950102</v>
+        <v>204.1194034404644</v>
       </c>
       <c r="G22" t="n">
-        <v>246.892364950102</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="H22" t="n">
-        <v>141.0499955573722</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I22" t="n">
         <v>36.82534820407517</v>
@@ -5916,10 +5916,10 @@
         <v>264.7227572412589</v>
       </c>
       <c r="L22" t="n">
-        <v>568.7357768650519</v>
+        <v>568.735776865052</v>
       </c>
       <c r="M22" t="n">
-        <v>902.5168747721757</v>
+        <v>902.5168747721759</v>
       </c>
       <c r="N22" t="n">
         <v>1229.689057252183</v>
@@ -5934,28 +5934,28 @@
         <v>1841.267410203758</v>
       </c>
       <c r="R22" t="n">
-        <v>1760.53145168144</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S22" t="n">
-        <v>1574.445526402215</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T22" t="n">
-        <v>1342.82828704461</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="U22" t="n">
-        <v>1342.82828704461</v>
+        <v>1566.034670714148</v>
       </c>
       <c r="V22" t="n">
-        <v>1342.82828704461</v>
+        <v>1300.055325534972</v>
       </c>
       <c r="W22" t="n">
-        <v>1059.497884975788</v>
+        <v>1016.72492346615</v>
       </c>
       <c r="X22" t="n">
-        <v>825.4175627587707</v>
+        <v>782.6446012491331</v>
       </c>
       <c r="Y22" t="n">
-        <v>602.305501575414</v>
+        <v>559.5325400657764</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>763.0213629420712</v>
+        <v>1290.709537540208</v>
       </c>
       <c r="C23" t="n">
-        <v>763.0213629420712</v>
+        <v>897.5340360431383</v>
       </c>
       <c r="D23" t="n">
-        <v>763.0213629420712</v>
+        <v>512.092907259806</v>
       </c>
       <c r="E23" t="n">
-        <v>763.0213629420712</v>
+        <v>512.092907259806</v>
       </c>
       <c r="F23" t="n">
-        <v>758.4292288362805</v>
+        <v>512.092907259806</v>
       </c>
       <c r="G23" t="n">
-        <v>347.4066256683341</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="H23" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="I23" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J23" t="n">
         <v>367.919247523302</v>
       </c>
       <c r="K23" t="n">
-        <v>493.1093475760565</v>
+        <v>927.7817015739124</v>
       </c>
       <c r="L23" t="n">
-        <v>672.4048819650505</v>
+        <v>1373.697455472711</v>
       </c>
       <c r="M23" t="n">
-        <v>1171.359940103716</v>
+        <v>1593.783418370105</v>
       </c>
       <c r="N23" t="n">
-        <v>1398.006099419821</v>
+        <v>1820.42957768621</v>
       </c>
       <c r="O23" t="n">
-        <v>1603.353720922761</v>
+        <v>2025.77719918915</v>
       </c>
       <c r="P23" t="n">
-        <v>1756.187514432068</v>
+        <v>2178.610992698458</v>
       </c>
       <c r="Q23" t="n">
-        <v>2167.546314725375</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="R23" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S23" t="n">
-        <v>2262.070521416607</v>
+        <v>2149.875745539531</v>
       </c>
       <c r="T23" t="n">
-        <v>2262.070521416607</v>
+        <v>1935.743659985028</v>
       </c>
       <c r="U23" t="n">
-        <v>2262.070521416607</v>
+        <v>1680.162142607151</v>
       </c>
       <c r="V23" t="n">
-        <v>1919.963712120126</v>
+        <v>1680.162142607151</v>
       </c>
       <c r="W23" t="n">
-        <v>1548.964677088413</v>
+        <v>1680.162142607151</v>
       </c>
       <c r="X23" t="n">
-        <v>1159.51207202147</v>
+        <v>1290.709537540208</v>
       </c>
       <c r="Y23" t="n">
-        <v>763.0213629420712</v>
+        <v>1290.709537540208</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>792.9782372797896</v>
+        <v>792.9782372797895</v>
       </c>
       <c r="C24" t="n">
-        <v>642.3240068398818</v>
+        <v>642.3240068398816</v>
       </c>
       <c r="D24" t="n">
-        <v>512.2350394613621</v>
+        <v>512.235039461362</v>
       </c>
       <c r="E24" t="n">
-        <v>375.7885485722499</v>
+        <v>375.7885485722497</v>
       </c>
       <c r="F24" t="n">
-        <v>251.3567424553817</v>
+        <v>251.3567424553814</v>
       </c>
       <c r="G24" t="n">
-        <v>132.4420069818954</v>
+        <v>132.4420069818952</v>
       </c>
       <c r="H24" t="n">
-        <v>55.20367639450399</v>
+        <v>55.20367639450387</v>
       </c>
       <c r="I24" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J24" t="n">
-        <v>69.65369308326201</v>
+        <v>264.3886880629894</v>
       </c>
       <c r="K24" t="n">
-        <v>467.3895887106321</v>
+        <v>765.3539155648646</v>
       </c>
       <c r="L24" t="n">
-        <v>1027.252042761242</v>
+        <v>919.8750033596594</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.152828240882</v>
+        <v>1112.775788839299</v>
       </c>
       <c r="N24" t="n">
-        <v>1427.524742713201</v>
+        <v>1534.847183298225</v>
       </c>
       <c r="O24" t="n">
-        <v>1602.786664184275</v>
+        <v>1710.109104769298</v>
       </c>
       <c r="P24" t="n">
-        <v>2162.649118234885</v>
+        <v>1838.20575505564</v>
       </c>
       <c r="Q24" t="n">
-        <v>2215.830858947753</v>
+        <v>2215.830858947754</v>
       </c>
       <c r="R24" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S24" t="n">
         <v>2148.40924868244</v>
@@ -6113,7 +6113,7 @@
         <v>1124.088788645244</v>
       </c>
       <c r="Y24" t="n">
-        <v>944.7745717207509</v>
+        <v>944.7745717207508</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>457.628459416924</v>
+        <v>891.1757387174362</v>
       </c>
       <c r="C25" t="n">
-        <v>457.628459416924</v>
+        <v>891.1757387174362</v>
       </c>
       <c r="D25" t="n">
-        <v>457.628459416924</v>
+        <v>735.542625619951</v>
       </c>
       <c r="E25" t="n">
-        <v>457.628459416924</v>
+        <v>579.9838134791535</v>
       </c>
       <c r="F25" t="n">
-        <v>457.628459416924</v>
+        <v>422.6578786921264</v>
       </c>
       <c r="G25" t="n">
-        <v>457.628459416924</v>
+        <v>255.3638234557372</v>
       </c>
       <c r="H25" t="n">
-        <v>457.628459416924</v>
+        <v>149.4660577816292</v>
       </c>
       <c r="I25" t="n">
-        <v>457.628459416924</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J25" t="n">
-        <v>494.3759714553981</v>
+        <v>81.98892246680622</v>
       </c>
       <c r="K25" t="n">
-        <v>685.525868454108</v>
+        <v>273.1388194655162</v>
       </c>
       <c r="L25" t="n">
-        <v>989.5388880779011</v>
+        <v>577.1518390893093</v>
       </c>
       <c r="M25" t="n">
-        <v>1323.319985985025</v>
+        <v>910.9329369964331</v>
       </c>
       <c r="N25" t="n">
-        <v>1650.492168465032</v>
+        <v>1238.10511947644</v>
       </c>
       <c r="O25" t="n">
-        <v>1946.188123249977</v>
+        <v>1533.801074261385</v>
       </c>
       <c r="P25" t="n">
-        <v>2179.861225078525</v>
+        <v>1767.474176089933</v>
       </c>
       <c r="Q25" t="n">
-        <v>2262.070521416607</v>
+        <v>1849.683472428016</v>
       </c>
       <c r="R25" t="n">
-        <v>2262.070521416607</v>
+        <v>1849.683472428016</v>
       </c>
       <c r="S25" t="n">
-        <v>2075.984596137383</v>
+        <v>1663.597547148791</v>
       </c>
       <c r="T25" t="n">
-        <v>1844.367356779778</v>
+        <v>1663.597547148791</v>
       </c>
       <c r="U25" t="n">
-        <v>1558.980928585178</v>
+        <v>1663.597547148791</v>
       </c>
       <c r="V25" t="n">
-        <v>1293.001583406003</v>
+        <v>1397.618201969615</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.67118133718</v>
+        <v>1114.287799900793</v>
       </c>
       <c r="X25" t="n">
-        <v>775.5908591201634</v>
+        <v>1114.287799900793</v>
       </c>
       <c r="Y25" t="n">
-        <v>552.4787979368067</v>
+        <v>891.1757387174362</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>175.5629264907928</v>
+        <v>1699.164897725739</v>
       </c>
       <c r="C26" t="n">
-        <v>45.24141042833214</v>
+        <v>1305.98939622867</v>
       </c>
       <c r="D26" t="n">
-        <v>45.24141042833214</v>
+        <v>920.5482674453374</v>
       </c>
       <c r="E26" t="n">
-        <v>45.24141042833214</v>
+        <v>517.9647425618818</v>
       </c>
       <c r="F26" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="G26" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="H26" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="I26" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J26" t="n">
         <v>367.919247523302</v>
@@ -6244,34 +6244,34 @@
         <v>1324.484625681489</v>
       </c>
       <c r="P26" t="n">
-        <v>1850.7117211233</v>
+        <v>1756.187514432069</v>
       </c>
       <c r="Q26" t="n">
-        <v>2262.070521416607</v>
+        <v>2167.546314725375</v>
       </c>
       <c r="R26" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S26" t="n">
         <v>2144.325687897709</v>
       </c>
       <c r="T26" t="n">
-        <v>1930.193602343206</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="U26" t="n">
-        <v>1674.612084965329</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="V26" t="n">
-        <v>1332.505275668847</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="W26" t="n">
-        <v>961.5062406371349</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="X26" t="n">
-        <v>572.0536355701917</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="Y26" t="n">
-        <v>175.5629264907928</v>
+        <v>1930.193602343207</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>792.9782372797895</v>
+        <v>792.9782372797897</v>
       </c>
       <c r="C27" t="n">
-        <v>642.3240068398817</v>
+        <v>642.3240068398819</v>
       </c>
       <c r="D27" t="n">
-        <v>512.235039461362</v>
+        <v>512.2350394613622</v>
       </c>
       <c r="E27" t="n">
-        <v>375.7885485722497</v>
+        <v>375.7885485722499</v>
       </c>
       <c r="F27" t="n">
-        <v>251.3567424553815</v>
+        <v>251.3567424553817</v>
       </c>
       <c r="G27" t="n">
-        <v>132.4420069818953</v>
+        <v>132.4420069818954</v>
       </c>
       <c r="H27" t="n">
-        <v>55.20367639450387</v>
+        <v>55.20367639450405</v>
       </c>
       <c r="I27" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J27" t="n">
-        <v>69.65369308326201</v>
+        <v>69.65369308326203</v>
       </c>
       <c r="K27" t="n">
-        <v>209.9267216765193</v>
+        <v>570.6189205851372</v>
       </c>
       <c r="L27" t="n">
-        <v>364.4478094713143</v>
+        <v>725.1400083799321</v>
       </c>
       <c r="M27" t="n">
-        <v>557.3485949509536</v>
+        <v>918.0407938595714</v>
       </c>
       <c r="N27" t="n">
-        <v>764.7205094232733</v>
+        <v>1125.412708331891</v>
       </c>
       <c r="O27" t="n">
         <v>1324.582963473883</v>
       </c>
       <c r="P27" t="n">
-        <v>1884.445417524493</v>
+        <v>1884.445417524494</v>
       </c>
       <c r="Q27" t="n">
         <v>2262.070521416607</v>
@@ -6350,7 +6350,7 @@
         <v>1124.088788645244</v>
       </c>
       <c r="Y27" t="n">
-        <v>944.7745717207508</v>
+        <v>944.7745717207511</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1514.813430153949</v>
+        <v>998.2017338120602</v>
       </c>
       <c r="C28" t="n">
-        <v>1344.608312219938</v>
+        <v>827.9966158780494</v>
       </c>
       <c r="D28" t="n">
-        <v>1188.975199122453</v>
+        <v>672.3635027805642</v>
       </c>
       <c r="E28" t="n">
-        <v>1033.416386981655</v>
+        <v>516.8046906397667</v>
       </c>
       <c r="F28" t="n">
-        <v>876.0904521946281</v>
+        <v>359.4787558527397</v>
       </c>
       <c r="G28" t="n">
-        <v>708.7963969582389</v>
+        <v>192.1847006163505</v>
       </c>
       <c r="H28" t="n">
-        <v>561.8531067702206</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="I28" t="n">
-        <v>457.6284594169236</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J28" t="n">
-        <v>494.3759714553976</v>
+        <v>81.98892246680622</v>
       </c>
       <c r="K28" t="n">
-        <v>685.5258684541076</v>
+        <v>273.1388194655162</v>
       </c>
       <c r="L28" t="n">
-        <v>989.5388880779007</v>
+        <v>577.1518390893093</v>
       </c>
       <c r="M28" t="n">
-        <v>1323.319985985024</v>
+        <v>910.9329369964331</v>
       </c>
       <c r="N28" t="n">
-        <v>1650.492168465031</v>
+        <v>1238.10511947644</v>
       </c>
       <c r="O28" t="n">
-        <v>1946.188123249976</v>
+        <v>1533.801074261385</v>
       </c>
       <c r="P28" t="n">
-        <v>2179.861225078525</v>
+        <v>1767.474176089933</v>
       </c>
       <c r="Q28" t="n">
-        <v>2262.070521416607</v>
+        <v>1849.683472428016</v>
       </c>
       <c r="R28" t="n">
-        <v>2181.334562894288</v>
+        <v>1849.683472428016</v>
       </c>
       <c r="S28" t="n">
-        <v>2181.334562894288</v>
+        <v>1849.683472428016</v>
       </c>
       <c r="T28" t="n">
-        <v>2181.334562894288</v>
+        <v>1618.066233070411</v>
       </c>
       <c r="U28" t="n">
-        <v>2181.334562894288</v>
+        <v>1618.066233070411</v>
       </c>
       <c r="V28" t="n">
-        <v>2181.334562894288</v>
+        <v>1618.066233070411</v>
       </c>
       <c r="W28" t="n">
-        <v>2157.213832245624</v>
+        <v>1618.066233070411</v>
       </c>
       <c r="X28" t="n">
-        <v>1923.133510028607</v>
+        <v>1383.985910853394</v>
       </c>
       <c r="Y28" t="n">
-        <v>1700.02144884525</v>
+        <v>1160.873849670037</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1861.57577570521</v>
+        <v>1296.581372842284</v>
       </c>
       <c r="C29" t="n">
-        <v>1468.40027420814</v>
+        <v>903.4058713452141</v>
       </c>
       <c r="D29" t="n">
-        <v>1082.959145424808</v>
+        <v>517.9647425618818</v>
       </c>
       <c r="E29" t="n">
-        <v>680.3756205413526</v>
+        <v>517.9647425618818</v>
       </c>
       <c r="F29" t="n">
-        <v>263.4811820713304</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="G29" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="H29" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="I29" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J29" t="n">
         <v>367.919247523302</v>
       </c>
       <c r="K29" t="n">
-        <v>493.1093475760565</v>
+        <v>927.7817015739124</v>
       </c>
       <c r="L29" t="n">
-        <v>1052.971801626667</v>
+        <v>1373.697455472711</v>
       </c>
       <c r="M29" t="n">
-        <v>1273.057764524061</v>
+        <v>1593.783418370105</v>
       </c>
       <c r="N29" t="n">
-        <v>1725.905370994977</v>
+        <v>1820.42957768621</v>
       </c>
       <c r="O29" t="n">
-        <v>1931.252992497917</v>
+        <v>2025.77719918915</v>
       </c>
       <c r="P29" t="n">
-        <v>2084.086786007224</v>
+        <v>2178.610992698458</v>
       </c>
       <c r="Q29" t="n">
-        <v>2167.546314725374</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="R29" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S29" t="n">
-        <v>2262.070521416607</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="T29" t="n">
-        <v>2262.070521416607</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="U29" t="n">
-        <v>2262.070521416607</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="V29" t="n">
-        <v>2262.070521416607</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="W29" t="n">
-        <v>2262.070521416607</v>
+        <v>1697.076118553681</v>
       </c>
       <c r="X29" t="n">
-        <v>2262.070521416607</v>
+        <v>1697.076118553681</v>
       </c>
       <c r="Y29" t="n">
-        <v>2262.070521416607</v>
+        <v>1697.076118553681</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>792.9782372797895</v>
       </c>
       <c r="C30" t="n">
-        <v>642.3240068398817</v>
+        <v>642.3240068398816</v>
       </c>
       <c r="D30" t="n">
         <v>512.235039461362</v>
@@ -6530,49 +6530,49 @@
         <v>375.7885485722497</v>
       </c>
       <c r="F30" t="n">
-        <v>251.3567424553815</v>
+        <v>251.3567424553814</v>
       </c>
       <c r="G30" t="n">
-        <v>132.4420069818953</v>
+        <v>132.4420069818952</v>
       </c>
       <c r="H30" t="n">
         <v>55.20367639450387</v>
       </c>
       <c r="I30" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J30" t="n">
-        <v>93.56202675418058</v>
+        <v>264.3886880629894</v>
       </c>
       <c r="K30" t="n">
-        <v>594.5272542560557</v>
+        <v>765.3539155648646</v>
       </c>
       <c r="L30" t="n">
-        <v>749.0483420508506</v>
+        <v>919.8750033596594</v>
       </c>
       <c r="M30" t="n">
-        <v>941.9491275304899</v>
+        <v>1112.775788839299</v>
       </c>
       <c r="N30" t="n">
-        <v>1149.32104200281</v>
+        <v>1320.147703311619</v>
       </c>
       <c r="O30" t="n">
-        <v>1324.582963473883</v>
+        <v>1495.409624782692</v>
       </c>
       <c r="P30" t="n">
-        <v>1884.445417524493</v>
+        <v>1838.20575505564</v>
       </c>
       <c r="Q30" t="n">
-        <v>2262.070521416607</v>
+        <v>2215.830858947754</v>
       </c>
       <c r="R30" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S30" t="n">
-        <v>2148.409248682439</v>
+        <v>2148.40924868244</v>
       </c>
       <c r="T30" t="n">
-        <v>1976.040922740219</v>
+        <v>1976.04092274022</v>
       </c>
       <c r="U30" t="n">
         <v>1766.053113790878</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>526.6384536006257</v>
+        <v>1102.426381165357</v>
       </c>
       <c r="C31" t="n">
-        <v>356.4333356666149</v>
+        <v>932.2212632313465</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8002225691296</v>
+        <v>776.5881501338613</v>
       </c>
       <c r="E31" t="n">
-        <v>45.24141042833214</v>
+        <v>621.0293379930638</v>
       </c>
       <c r="F31" t="n">
-        <v>45.24141042833214</v>
+        <v>463.7034032060367</v>
       </c>
       <c r="G31" t="n">
-        <v>45.24141042833214</v>
+        <v>296.4093479696475</v>
       </c>
       <c r="H31" t="n">
-        <v>45.24141042833214</v>
+        <v>149.4660577816292</v>
       </c>
       <c r="I31" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J31" t="n">
-        <v>81.9889224668062</v>
+        <v>81.98892246680622</v>
       </c>
       <c r="K31" t="n">
-        <v>273.1388194655161</v>
+        <v>273.1388194655162</v>
       </c>
       <c r="L31" t="n">
-        <v>577.1518390893092</v>
+        <v>577.1518390893093</v>
       </c>
       <c r="M31" t="n">
-        <v>910.932936996433</v>
+        <v>910.9329369964331</v>
       </c>
       <c r="N31" t="n">
         <v>1238.10511947644</v>
@@ -6645,28 +6645,28 @@
         <v>1849.683472428016</v>
       </c>
       <c r="R31" t="n">
-        <v>1849.683472428016</v>
+        <v>1842.949166634553</v>
       </c>
       <c r="S31" t="n">
-        <v>1849.683472428016</v>
+        <v>1842.949166634553</v>
       </c>
       <c r="T31" t="n">
-        <v>1849.683472428016</v>
+        <v>1842.949166634553</v>
       </c>
       <c r="U31" t="n">
-        <v>1718.348602940299</v>
+        <v>1842.949166634553</v>
       </c>
       <c r="V31" t="n">
-        <v>1452.369257761123</v>
+        <v>1842.949166634553</v>
       </c>
       <c r="W31" t="n">
-        <v>1169.038855692301</v>
+        <v>1559.618764565731</v>
       </c>
       <c r="X31" t="n">
-        <v>934.9585334752836</v>
+        <v>1325.538442348714</v>
       </c>
       <c r="Y31" t="n">
-        <v>711.8464722919269</v>
+        <v>1102.426381165357</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>833.2660640951199</v>
+        <v>1282.270459255717</v>
       </c>
       <c r="C32" t="n">
-        <v>833.2660640951199</v>
+        <v>889.0949577586474</v>
       </c>
       <c r="D32" t="n">
-        <v>447.8249353117876</v>
+        <v>503.6538289753152</v>
       </c>
       <c r="E32" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="F32" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="G32" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="H32" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="I32" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J32" t="n">
         <v>367.919247523302</v>
       </c>
       <c r="K32" t="n">
-        <v>493.1093475760565</v>
+        <v>866.5026495085607</v>
       </c>
       <c r="L32" t="n">
-        <v>672.4048819650505</v>
+        <v>1045.798183897555</v>
       </c>
       <c r="M32" t="n">
-        <v>892.4908448624444</v>
+        <v>1265.884146794948</v>
       </c>
       <c r="N32" t="n">
-        <v>1119.13700417855</v>
+        <v>1492.530306111054</v>
       </c>
       <c r="O32" t="n">
-        <v>1324.484625681489</v>
+        <v>1697.877927613994</v>
       </c>
       <c r="P32" t="n">
-        <v>1756.187514432068</v>
+        <v>1850.711721123301</v>
       </c>
       <c r="Q32" t="n">
-        <v>2167.546314725374</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="R32" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S32" t="n">
         <v>2144.325687897709</v>
       </c>
       <c r="T32" t="n">
-        <v>1972.358328182397</v>
+        <v>2079.255914046513</v>
       </c>
       <c r="U32" t="n">
-        <v>1972.358328182397</v>
+        <v>2079.255914046513</v>
       </c>
       <c r="V32" t="n">
-        <v>1630.251518885916</v>
+        <v>2079.255914046513</v>
       </c>
       <c r="W32" t="n">
-        <v>1630.251518885916</v>
+        <v>2079.255914046513</v>
       </c>
       <c r="X32" t="n">
-        <v>1630.251518885916</v>
+        <v>2079.255914046513</v>
       </c>
       <c r="Y32" t="n">
-        <v>1233.760809806517</v>
+        <v>1682.765204967114</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>792.9782372797897</v>
+        <v>792.9782372797895</v>
       </c>
       <c r="C33" t="n">
-        <v>642.3240068398819</v>
+        <v>642.3240068398816</v>
       </c>
       <c r="D33" t="n">
-        <v>512.2350394613622</v>
+        <v>512.235039461362</v>
       </c>
       <c r="E33" t="n">
-        <v>375.7885485722499</v>
+        <v>375.7885485722497</v>
       </c>
       <c r="F33" t="n">
-        <v>251.3567424553817</v>
+        <v>251.3567424553814</v>
       </c>
       <c r="G33" t="n">
-        <v>132.4420069818954</v>
+        <v>132.4420069818952</v>
       </c>
       <c r="H33" t="n">
-        <v>55.20367639450403</v>
+        <v>55.20367639450387</v>
       </c>
       <c r="I33" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J33" t="n">
-        <v>140.7272979389127</v>
+        <v>264.3886880629894</v>
       </c>
       <c r="K33" t="n">
-        <v>641.6925254407878</v>
+        <v>765.3539155648646</v>
       </c>
       <c r="L33" t="n">
-        <v>796.2136132355827</v>
+        <v>919.8750033596594</v>
       </c>
       <c r="M33" t="n">
-        <v>989.114398715222</v>
+        <v>1112.775788839299</v>
       </c>
       <c r="N33" t="n">
-        <v>1196.486313187542</v>
+        <v>1320.147703311619</v>
       </c>
       <c r="O33" t="n">
-        <v>1756.348767238152</v>
+        <v>1495.409624782692</v>
       </c>
       <c r="P33" t="n">
         <v>1884.445417524494</v>
       </c>
       <c r="Q33" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="R33" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S33" t="n">
         <v>2148.40924868244</v>
@@ -6824,7 +6824,7 @@
         <v>1124.088788645244</v>
       </c>
       <c r="Y33" t="n">
-        <v>944.7745717207511</v>
+        <v>944.7745717207508</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.24141042833214</v>
+        <v>851.1846818726746</v>
       </c>
       <c r="C34" t="n">
-        <v>45.24141042833214</v>
+        <v>680.9795639386638</v>
       </c>
       <c r="D34" t="n">
-        <v>45.24141042833214</v>
+        <v>525.3464508411785</v>
       </c>
       <c r="E34" t="n">
-        <v>45.24141042833214</v>
+        <v>369.787638700381</v>
       </c>
       <c r="F34" t="n">
-        <v>45.24141042833214</v>
+        <v>212.4617039133539</v>
       </c>
       <c r="G34" t="n">
-        <v>45.24141042833214</v>
+        <v>149.4660577816292</v>
       </c>
       <c r="H34" t="n">
-        <v>45.24141042833214</v>
+        <v>149.4660577816292</v>
       </c>
       <c r="I34" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J34" t="n">
-        <v>81.9889224668062</v>
+        <v>81.98892246680622</v>
       </c>
       <c r="K34" t="n">
-        <v>273.1388194655161</v>
+        <v>273.1388194655162</v>
       </c>
       <c r="L34" t="n">
-        <v>577.1518390893092</v>
+        <v>577.1518390893093</v>
       </c>
       <c r="M34" t="n">
-        <v>910.932936996433</v>
+        <v>910.9329369964331</v>
       </c>
       <c r="N34" t="n">
         <v>1238.10511947644</v>
@@ -6891,19 +6891,19 @@
         <v>1351.244349268867</v>
       </c>
       <c r="U34" t="n">
-        <v>1065.857921074268</v>
+        <v>1351.244349268867</v>
       </c>
       <c r="V34" t="n">
-        <v>799.8785758950925</v>
+        <v>1085.265004089692</v>
       </c>
       <c r="W34" t="n">
-        <v>516.5481738262702</v>
+        <v>1085.265004089692</v>
       </c>
       <c r="X34" t="n">
-        <v>282.4678516092532</v>
+        <v>851.1846818726746</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.35579042589657</v>
+        <v>851.1846818726746</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1444.77670112436</v>
+        <v>1297.573334004413</v>
       </c>
       <c r="C35" t="n">
-        <v>1051.60119962729</v>
+        <v>1297.573334004413</v>
       </c>
       <c r="D35" t="n">
-        <v>1051.60119962729</v>
+        <v>912.1322052210803</v>
       </c>
       <c r="E35" t="n">
-        <v>1051.60119962729</v>
+        <v>509.5486803376249</v>
       </c>
       <c r="F35" t="n">
-        <v>634.7067611572683</v>
+        <v>92.65424186760265</v>
       </c>
       <c r="G35" t="n">
-        <v>394.8194571076046</v>
+        <v>92.65424186760265</v>
       </c>
       <c r="H35" t="n">
         <v>92.65424186760265</v>
       </c>
       <c r="I35" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J35" t="n">
-        <v>277.4663534904452</v>
+        <v>320.5094382429567</v>
       </c>
       <c r="K35" t="n">
-        <v>402.6564535431996</v>
+        <v>445.6995382957111</v>
       </c>
       <c r="L35" t="n">
-        <v>858.37013756863</v>
+        <v>624.9950726847052</v>
       </c>
       <c r="M35" t="n">
-        <v>1078.456100466024</v>
+        <v>845.081035582099</v>
       </c>
       <c r="N35" t="n">
-        <v>1305.102259782129</v>
+        <v>1071.727194898204</v>
       </c>
       <c r="O35" t="n">
-        <v>1510.449881285069</v>
+        <v>1277.074816401144</v>
       </c>
       <c r="P35" t="n">
-        <v>1663.283674794376</v>
+        <v>1429.908609910452</v>
       </c>
       <c r="Q35" t="n">
-        <v>1746.743203512526</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R35" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S35" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T35" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="U35" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="V35" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="W35" t="n">
-        <v>1841.267410203759</v>
+        <v>1687.025939071356</v>
       </c>
       <c r="X35" t="n">
-        <v>1841.267410203759</v>
+        <v>1297.573334004413</v>
       </c>
       <c r="Y35" t="n">
-        <v>1444.77670112436</v>
+        <v>1297.573334004413</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>707.3238444681413</v>
+        <v>774.5999090893607</v>
       </c>
       <c r="C36" t="n">
-        <v>556.6696140282335</v>
+        <v>623.9456786494529</v>
       </c>
       <c r="D36" t="n">
-        <v>426.5806466497138</v>
+        <v>493.8567112709333</v>
       </c>
       <c r="E36" t="n">
-        <v>290.1341557606015</v>
+        <v>357.410220381821</v>
       </c>
       <c r="F36" t="n">
-        <v>165.7023496437333</v>
+        <v>232.9784142649528</v>
       </c>
       <c r="G36" t="n">
-        <v>46.78761417024707</v>
+        <v>114.0636787914666</v>
       </c>
       <c r="H36" t="n">
-        <v>46.78761417024707</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I36" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J36" t="n">
-        <v>100.3629297533485</v>
+        <v>255.9726258387325</v>
       </c>
       <c r="K36" t="n">
-        <v>556.0766137787788</v>
+        <v>605.4899468074753</v>
       </c>
       <c r="L36" t="n">
-        <v>710.5977015735737</v>
+        <v>760.0110346022702</v>
       </c>
       <c r="M36" t="n">
-        <v>903.498487053213</v>
+        <v>952.9118200819096</v>
       </c>
       <c r="N36" t="n">
-        <v>1110.870401525533</v>
+        <v>1160.283734554229</v>
       </c>
       <c r="O36" t="n">
-        <v>1286.132322996606</v>
+        <v>1335.545656025303</v>
       </c>
       <c r="P36" t="n">
-        <v>1741.846007022037</v>
+        <v>1463.642306311645</v>
       </c>
       <c r="Q36" t="n">
-        <v>1795.027747734905</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R36" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S36" t="n">
         <v>1727.606137469591</v>
       </c>
       <c r="T36" t="n">
-        <v>1555.237811527371</v>
+        <v>1727.606137469591</v>
       </c>
       <c r="U36" t="n">
-        <v>1345.25000257803</v>
+        <v>1517.618328520249</v>
       </c>
       <c r="V36" t="n">
-        <v>1122.710000949097</v>
+        <v>1295.078326891316</v>
       </c>
       <c r="W36" t="n">
-        <v>892.5927550823835</v>
+        <v>1143.221203663842</v>
       </c>
       <c r="X36" t="n">
-        <v>892.5927550823835</v>
+        <v>953.9141260138535</v>
       </c>
       <c r="Y36" t="n">
-        <v>859.1201789091026</v>
+        <v>774.5999090893607</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.0499955573722</v>
+        <v>131.6756867239577</v>
       </c>
       <c r="C37" t="n">
-        <v>141.0499955573722</v>
+        <v>131.6756867239577</v>
       </c>
       <c r="D37" t="n">
-        <v>141.0499955573722</v>
+        <v>131.6756867239577</v>
       </c>
       <c r="E37" t="n">
-        <v>141.0499955573722</v>
+        <v>131.6756867239577</v>
       </c>
       <c r="F37" t="n">
-        <v>141.0499955573722</v>
+        <v>131.6756867239577</v>
       </c>
       <c r="G37" t="n">
-        <v>141.0499955573722</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="H37" t="n">
-        <v>141.0499955573722</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I37" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J37" t="n">
-        <v>73.57286024254932</v>
+        <v>73.57286024254904</v>
       </c>
       <c r="K37" t="n">
-        <v>264.7227572412593</v>
+        <v>264.7227572412589</v>
       </c>
       <c r="L37" t="n">
-        <v>568.7357768650523</v>
+        <v>568.7357768650519</v>
       </c>
       <c r="M37" t="n">
-        <v>902.5168747721762</v>
+        <v>902.5168747721757</v>
       </c>
       <c r="N37" t="n">
         <v>1229.689057252183</v>
@@ -7116,31 +7116,31 @@
         <v>1759.058113865676</v>
       </c>
       <c r="Q37" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R37" t="n">
-        <v>1760.53145168144</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S37" t="n">
-        <v>1664.555793757948</v>
+        <v>1655.181484924534</v>
       </c>
       <c r="T37" t="n">
-        <v>1432.938554400343</v>
+        <v>1423.564245566929</v>
       </c>
       <c r="U37" t="n">
-        <v>1147.552126205744</v>
+        <v>1138.177817372329</v>
       </c>
       <c r="V37" t="n">
-        <v>881.572781026568</v>
+        <v>872.1984721931536</v>
       </c>
       <c r="W37" t="n">
-        <v>598.2423789577457</v>
+        <v>588.8680701243313</v>
       </c>
       <c r="X37" t="n">
-        <v>364.1620567407288</v>
+        <v>354.7877479073144</v>
       </c>
       <c r="Y37" t="n">
-        <v>141.0499955573722</v>
+        <v>131.6756867239577</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>830.1498698584605</v>
+        <v>906.2603699190045</v>
       </c>
       <c r="C38" t="n">
-        <v>436.9743683613911</v>
+        <v>906.2603699190045</v>
       </c>
       <c r="D38" t="n">
-        <v>436.9743683613911</v>
+        <v>906.2603699190045</v>
       </c>
       <c r="E38" t="n">
-        <v>436.9743683613911</v>
+        <v>503.676845035549</v>
       </c>
       <c r="F38" t="n">
-        <v>436.9743683613911</v>
+        <v>503.676845035549</v>
       </c>
       <c r="G38" t="n">
-        <v>394.8194571076046</v>
+        <v>92.65424186760265</v>
       </c>
       <c r="H38" t="n">
         <v>92.65424186760265</v>
@@ -7174,52 +7174,52 @@
         <v>36.82534820407517</v>
       </c>
       <c r="J38" t="n">
-        <v>98.35037282729431</v>
+        <v>359.503185299045</v>
       </c>
       <c r="K38" t="n">
-        <v>223.5404728800488</v>
+        <v>484.6932853517995</v>
       </c>
       <c r="L38" t="n">
-        <v>402.8360072690429</v>
+        <v>663.9888197407936</v>
       </c>
       <c r="M38" t="n">
-        <v>622.9219701664367</v>
+        <v>884.0747826381875</v>
       </c>
       <c r="N38" t="n">
-        <v>849.568129482542</v>
+        <v>1110.720941954293</v>
       </c>
       <c r="O38" t="n">
-        <v>1054.915750985482</v>
+        <v>1566.434625979723</v>
       </c>
       <c r="P38" t="n">
-        <v>1510.629435010912</v>
+        <v>1719.268419489031</v>
       </c>
       <c r="Q38" t="n">
-        <v>1746.743203512526</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R38" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S38" t="n">
-        <v>1841.267410203759</v>
+        <v>1723.52257668486</v>
       </c>
       <c r="T38" t="n">
-        <v>1627.135324649256</v>
+        <v>1723.52257668486</v>
       </c>
       <c r="U38" t="n">
-        <v>1627.135324649256</v>
+        <v>1703.2458247098</v>
       </c>
       <c r="V38" t="n">
-        <v>1627.135324649256</v>
+        <v>1703.2458247098</v>
       </c>
       <c r="W38" t="n">
-        <v>1627.135324649256</v>
+        <v>1703.2458247098</v>
       </c>
       <c r="X38" t="n">
-        <v>1627.135324649256</v>
+        <v>1703.2458247098</v>
       </c>
       <c r="Y38" t="n">
-        <v>1230.644615569857</v>
+        <v>1306.755115630401</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>401.1644001204867</v>
+        <v>774.5999090893607</v>
       </c>
       <c r="C39" t="n">
-        <v>250.5101696805789</v>
+        <v>623.9456786494529</v>
       </c>
       <c r="D39" t="n">
-        <v>250.5101696805789</v>
+        <v>493.8567112709333</v>
       </c>
       <c r="E39" t="n">
-        <v>114.0636787914666</v>
+        <v>357.410220381821</v>
       </c>
       <c r="F39" t="n">
-        <v>114.0636787914666</v>
+        <v>232.9784142649528</v>
       </c>
       <c r="G39" t="n">
         <v>114.0636787914666</v>
@@ -7256,49 +7256,49 @@
         <v>255.9726258387325</v>
       </c>
       <c r="K39" t="n">
-        <v>348.4977412983812</v>
+        <v>605.4899468074753</v>
       </c>
       <c r="L39" t="n">
-        <v>503.0188290931761</v>
+        <v>760.0110346022702</v>
       </c>
       <c r="M39" t="n">
-        <v>695.9196145728155</v>
+        <v>952.9118200819096</v>
       </c>
       <c r="N39" t="n">
-        <v>903.2915290451351</v>
+        <v>1160.283734554229</v>
       </c>
       <c r="O39" t="n">
-        <v>1078.553450516209</v>
+        <v>1335.545656025303</v>
       </c>
       <c r="P39" t="n">
-        <v>1417.402643842791</v>
+        <v>1463.642306311645</v>
       </c>
       <c r="Q39" t="n">
-        <v>1795.027747734905</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R39" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S39" t="n">
         <v>1727.606137469591</v>
       </c>
       <c r="T39" t="n">
-        <v>1555.237811527371</v>
+        <v>1727.606137469591</v>
       </c>
       <c r="U39" t="n">
-        <v>1345.250002578029</v>
+        <v>1517.618328520249</v>
       </c>
       <c r="V39" t="n">
-        <v>1122.710000949096</v>
+        <v>1295.078326891316</v>
       </c>
       <c r="W39" t="n">
-        <v>892.5927550823833</v>
+        <v>1115.70332118031</v>
       </c>
       <c r="X39" t="n">
-        <v>732.2749514859408</v>
+        <v>926.3962435303221</v>
       </c>
       <c r="Y39" t="n">
-        <v>552.960734561448</v>
+        <v>926.3962435303221</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.8540962272556</v>
+        <v>651.1424371355738</v>
       </c>
       <c r="C40" t="n">
-        <v>231.8540962272556</v>
+        <v>480.937319201563</v>
       </c>
       <c r="D40" t="n">
-        <v>231.8540962272556</v>
+        <v>480.937319201563</v>
       </c>
       <c r="E40" t="n">
-        <v>231.8540962272556</v>
+        <v>361.4453382274914</v>
       </c>
       <c r="F40" t="n">
-        <v>231.8540962272556</v>
+        <v>204.1194034404644</v>
       </c>
       <c r="G40" t="n">
-        <v>231.8540962272556</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="H40" t="n">
-        <v>141.0499955573722</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I40" t="n">
         <v>36.82534820407517</v>
       </c>
       <c r="J40" t="n">
-        <v>73.57286024254921</v>
+        <v>73.57286024254915</v>
       </c>
       <c r="K40" t="n">
-        <v>264.7227572412592</v>
+        <v>264.722757241259</v>
       </c>
       <c r="L40" t="n">
         <v>568.7357768650521</v>
@@ -7353,10 +7353,10 @@
         <v>1759.058113865676</v>
       </c>
       <c r="Q40" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R40" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S40" t="n">
         <v>1655.181484924534</v>
@@ -7374,10 +7374,10 @@
         <v>874.2544983189305</v>
       </c>
       <c r="X40" t="n">
-        <v>640.1741761019135</v>
+        <v>874.2544983189305</v>
       </c>
       <c r="Y40" t="n">
-        <v>417.0621149185569</v>
+        <v>651.1424371355738</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>692.5249564149073</v>
+        <v>995.2840563923123</v>
       </c>
       <c r="C41" t="n">
-        <v>692.5249564149073</v>
+        <v>672.0559268806494</v>
       </c>
       <c r="D41" t="n">
-        <v>692.5249564149073</v>
+        <v>672.0559268806494</v>
       </c>
       <c r="E41" t="n">
-        <v>692.5249564149073</v>
+        <v>348.8277973689866</v>
       </c>
       <c r="F41" t="n">
-        <v>369.2968269032443</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="G41" t="n">
-        <v>46.0686973915814</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="H41" t="n">
-        <v>46.0686973915814</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="I41" t="n">
         <v>25.5996678573237</v>
       </c>
       <c r="J41" t="n">
-        <v>87.12469248054285</v>
+        <v>87.12469248054283</v>
       </c>
       <c r="K41" t="n">
         <v>212.3147925332974</v>
@@ -7438,25 +7438,25 @@
         <v>1279.983392866185</v>
       </c>
       <c r="S41" t="n">
-        <v>1162.238559347287</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="T41" t="n">
-        <v>948.1064737927846</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="U41" t="n">
-        <v>692.5249564149073</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="V41" t="n">
-        <v>692.5249564149073</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="W41" t="n">
-        <v>692.5249564149073</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="X41" t="n">
-        <v>692.5249564149073</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="Y41" t="n">
-        <v>692.5249564149073</v>
+        <v>1279.983392866185</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>529.4485179840296</v>
+        <v>176.2538982972315</v>
       </c>
       <c r="C42" t="n">
-        <v>378.7942875441219</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="D42" t="n">
-        <v>248.7053201656022</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="E42" t="n">
-        <v>112.2588292764899</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="F42" t="n">
         <v>25.5996678573237</v>
@@ -7490,52 +7490,52 @@
         <v>25.5996678573237</v>
       </c>
       <c r="J42" t="n">
-        <v>50.01195051225358</v>
+        <v>244.746945491981</v>
       </c>
       <c r="K42" t="n">
-        <v>142.5370659719023</v>
+        <v>337.2720609516297</v>
       </c>
       <c r="L42" t="n">
-        <v>297.0581537666972</v>
+        <v>491.7931487464247</v>
       </c>
       <c r="M42" t="n">
-        <v>489.9589392463366</v>
+        <v>684.693934226064</v>
       </c>
       <c r="N42" t="n">
-        <v>697.3308537186563</v>
+        <v>892.0658486983837</v>
       </c>
       <c r="O42" t="n">
-        <v>872.5927751897301</v>
+        <v>1067.327770169457</v>
       </c>
       <c r="P42" t="n">
-        <v>1180.561989684463</v>
+        <v>1195.424420455799</v>
       </c>
       <c r="Q42" t="n">
-        <v>1233.743730397331</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="R42" t="n">
         <v>1279.983392866185</v>
       </c>
       <c r="S42" t="n">
-        <v>1279.983392866185</v>
+        <v>1190.581497608932</v>
       </c>
       <c r="T42" t="n">
-        <v>1279.983392866185</v>
+        <v>1018.213171666712</v>
       </c>
       <c r="U42" t="n">
-        <v>1279.983392866185</v>
+        <v>808.2253627173703</v>
       </c>
       <c r="V42" t="n">
-        <v>1279.983392866185</v>
+        <v>585.6853610884374</v>
       </c>
       <c r="W42" t="n">
-        <v>1049.866146999472</v>
+        <v>355.5681152217243</v>
       </c>
       <c r="X42" t="n">
-        <v>860.5590693494837</v>
+        <v>355.5681152217243</v>
       </c>
       <c r="Y42" t="n">
-        <v>681.244852424991</v>
+        <v>176.2538982972315</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>391.6857813434549</v>
+        <v>354.2525887056876</v>
       </c>
       <c r="C43" t="n">
-        <v>391.6857813434549</v>
+        <v>184.0474707716768</v>
       </c>
       <c r="D43" t="n">
-        <v>236.0526682459696</v>
+        <v>184.0474707716768</v>
       </c>
       <c r="E43" t="n">
-        <v>80.49385610517214</v>
+        <v>184.0474707716768</v>
       </c>
       <c r="F43" t="n">
-        <v>80.49385610517214</v>
+        <v>184.0474707716768</v>
       </c>
       <c r="G43" t="n">
-        <v>80.49385610517214</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="H43" t="n">
-        <v>80.49385610517214</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="I43" t="n">
         <v>25.5996678573237</v>
       </c>
       <c r="J43" t="n">
-        <v>62.34717989579776</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="K43" t="n">
-        <v>253.4970768945077</v>
+        <v>51.89449211335227</v>
       </c>
       <c r="L43" t="n">
-        <v>557.5100965183008</v>
+        <v>355.9075117371453</v>
       </c>
       <c r="M43" t="n">
-        <v>615.6008741168768</v>
+        <v>672.7034014715261</v>
       </c>
       <c r="N43" t="n">
-        <v>677.4177747022969</v>
+        <v>959.118472634897</v>
       </c>
       <c r="O43" t="n">
-        <v>964.1009946995545</v>
+        <v>1254.814427419842</v>
       </c>
       <c r="P43" t="n">
-        <v>1197.774096528103</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="Q43" t="n">
         <v>1279.983392866185</v>
@@ -7596,25 +7596,25 @@
         <v>1279.983392866185</v>
       </c>
       <c r="S43" t="n">
-        <v>1093.89746758696</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="T43" t="n">
-        <v>862.2802282293553</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="U43" t="n">
-        <v>576.8938000347562</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="V43" t="n">
-        <v>576.8938000347562</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="W43" t="n">
-        <v>576.8938000347562</v>
+        <v>996.6529907973625</v>
       </c>
       <c r="X43" t="n">
-        <v>576.8938000347562</v>
+        <v>762.5726685803455</v>
       </c>
       <c r="Y43" t="n">
-        <v>576.8938000347562</v>
+        <v>539.4606073969888</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>624.8783442811217</v>
+        <v>956.755263354522</v>
       </c>
       <c r="C44" t="n">
-        <v>624.8783442811217</v>
+        <v>633.527133842859</v>
       </c>
       <c r="D44" t="n">
-        <v>624.8783442811217</v>
+        <v>633.527133842859</v>
       </c>
       <c r="E44" t="n">
-        <v>301.6502147694588</v>
+        <v>633.527133842859</v>
       </c>
       <c r="F44" t="n">
-        <v>301.6502147694588</v>
+        <v>310.2990043311962</v>
       </c>
       <c r="G44" t="n">
-        <v>301.6502147694588</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="H44" t="n">
         <v>25.5996678573237</v>
@@ -7648,52 +7648,52 @@
         <v>25.5996678573237</v>
       </c>
       <c r="J44" t="n">
-        <v>87.12469248054285</v>
+        <v>87.12469248054283</v>
       </c>
       <c r="K44" t="n">
-        <v>212.3147925332946</v>
+        <v>212.3147925332974</v>
       </c>
       <c r="L44" t="n">
-        <v>391.6103269222887</v>
+        <v>391.6103269222914</v>
       </c>
       <c r="M44" t="n">
-        <v>611.6962898196825</v>
+        <v>611.6962898196853</v>
       </c>
       <c r="N44" t="n">
-        <v>838.3424491357879</v>
+        <v>838.3424491357905</v>
       </c>
       <c r="O44" t="n">
-        <v>1043.690070638728</v>
+        <v>1043.69007063873</v>
       </c>
       <c r="P44" t="n">
-        <v>1196.523864148035</v>
+        <v>1196.523864148038</v>
       </c>
       <c r="Q44" t="n">
-        <v>1279.983392866185</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="R44" t="n">
         <v>1279.983392866185</v>
       </c>
       <c r="S44" t="n">
-        <v>1162.238559347287</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="T44" t="n">
-        <v>948.1064737927846</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="U44" t="n">
-        <v>948.1064737927846</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="V44" t="n">
-        <v>948.1064737927846</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="W44" t="n">
-        <v>948.1064737927846</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="X44" t="n">
-        <v>948.1064737927846</v>
+        <v>956.755263354522</v>
       </c>
       <c r="Y44" t="n">
-        <v>624.8783442811217</v>
+        <v>956.755263354522</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>369.3734567123471</v>
+        <v>35.56193382349559</v>
       </c>
       <c r="C45" t="n">
-        <v>369.3734567123471</v>
+        <v>35.56193382349559</v>
       </c>
       <c r="D45" t="n">
-        <v>239.2844893338274</v>
+        <v>35.56193382349559</v>
       </c>
       <c r="E45" t="n">
-        <v>102.8379984447151</v>
+        <v>35.56193382349559</v>
       </c>
       <c r="F45" t="n">
-        <v>102.8379984447151</v>
+        <v>35.56193382349559</v>
       </c>
       <c r="G45" t="n">
-        <v>102.8379984447151</v>
+        <v>35.56193382349559</v>
       </c>
       <c r="H45" t="n">
-        <v>25.5996678573237</v>
+        <v>35.56193382349559</v>
       </c>
       <c r="I45" t="n">
         <v>25.5996678573237</v>
       </c>
       <c r="J45" t="n">
-        <v>50.01195051225358</v>
+        <v>244.746945491981</v>
       </c>
       <c r="K45" t="n">
-        <v>366.8078402466344</v>
+        <v>337.2720609516297</v>
       </c>
       <c r="L45" t="n">
-        <v>521.3289280414293</v>
+        <v>491.7931487464247</v>
       </c>
       <c r="M45" t="n">
-        <v>714.2297135210687</v>
+        <v>684.693934226064</v>
       </c>
       <c r="N45" t="n">
-        <v>921.6016279933883</v>
+        <v>892.0658486983837</v>
       </c>
       <c r="O45" t="n">
-        <v>1096.863549464462</v>
+        <v>1067.327770169457</v>
       </c>
       <c r="P45" t="n">
-        <v>1226.801652153317</v>
+        <v>1195.424420455799</v>
       </c>
       <c r="Q45" t="n">
-        <v>1279.983392866185</v>
+        <v>1248.606161168667</v>
       </c>
       <c r="R45" t="n">
         <v>1279.983392866185</v>
       </c>
       <c r="S45" t="n">
-        <v>1166.322120132018</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="T45" t="n">
-        <v>993.9537941897977</v>
+        <v>1218.624619283926</v>
       </c>
       <c r="U45" t="n">
-        <v>993.9537941897977</v>
+        <v>1008.636810334584</v>
       </c>
       <c r="V45" t="n">
-        <v>889.7910857277896</v>
+        <v>786.0968087056513</v>
       </c>
       <c r="W45" t="n">
-        <v>889.7910857277896</v>
+        <v>555.9795628389381</v>
       </c>
       <c r="X45" t="n">
-        <v>700.4840080778013</v>
+        <v>366.6724851889497</v>
       </c>
       <c r="Y45" t="n">
-        <v>521.1697911533084</v>
+        <v>187.3582682644569</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.8243152106207</v>
+        <v>651.028938520014</v>
       </c>
       <c r="C46" t="n">
-        <v>129.8243152106207</v>
+        <v>651.028938520014</v>
       </c>
       <c r="D46" t="n">
-        <v>129.8243152106207</v>
+        <v>495.3958254225287</v>
       </c>
       <c r="E46" t="n">
-        <v>129.8243152106207</v>
+        <v>339.8370132817312</v>
       </c>
       <c r="F46" t="n">
-        <v>129.8243152106207</v>
+        <v>339.8370132817312</v>
       </c>
       <c r="G46" t="n">
-        <v>129.8243152106207</v>
+        <v>172.542958045342</v>
       </c>
       <c r="H46" t="n">
-        <v>129.8243152106207</v>
+        <v>25.5996678573237</v>
       </c>
       <c r="I46" t="n">
         <v>25.5996678573237</v>
@@ -7809,22 +7809,22 @@
         <v>25.5996678573237</v>
       </c>
       <c r="K46" t="n">
-        <v>216.7495648560337</v>
+        <v>51.89449211335227</v>
       </c>
       <c r="L46" t="n">
-        <v>520.7625844798267</v>
+        <v>325.5266931661354</v>
       </c>
       <c r="M46" t="n">
-        <v>837.5584742142075</v>
+        <v>642.3225829005162</v>
       </c>
       <c r="N46" t="n">
-        <v>920.2065894500784</v>
+        <v>959.118472634897</v>
       </c>
       <c r="O46" t="n">
-        <v>964.1009946995545</v>
+        <v>1254.814427419842</v>
       </c>
       <c r="P46" t="n">
-        <v>1197.774096528103</v>
+        <v>1279.983392866185</v>
       </c>
       <c r="Q46" t="n">
         <v>1279.983392866185</v>
@@ -7833,25 +7833,25 @@
         <v>1279.983392866185</v>
       </c>
       <c r="S46" t="n">
-        <v>1196.137730010823</v>
+        <v>1148.625523056795</v>
       </c>
       <c r="T46" t="n">
-        <v>964.520490653218</v>
+        <v>917.0082836991897</v>
       </c>
       <c r="U46" t="n">
-        <v>679.1340624586188</v>
+        <v>917.0082836991897</v>
       </c>
       <c r="V46" t="n">
-        <v>413.154717279443</v>
+        <v>651.028938520014</v>
       </c>
       <c r="W46" t="n">
-        <v>129.8243152106207</v>
+        <v>651.028938520014</v>
       </c>
       <c r="X46" t="n">
-        <v>129.8243152106207</v>
+        <v>651.028938520014</v>
       </c>
       <c r="Y46" t="n">
-        <v>129.8243152106207</v>
+        <v>651.028938520014</v>
       </c>
     </row>
   </sheetData>
@@ -8777,16 +8777,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>125.1465699542849</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>56.54288884207222</v>
       </c>
       <c r="P12" t="n">
-        <v>181.6894587963567</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>15.35383743468674</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>20.02036079049669</v>
       </c>
       <c r="L13" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>261.318295086672</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>226.8668389676285</v>
+        <v>257.5545344939003</v>
       </c>
       <c r="O13" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
         <v>18.8953217985019</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>181.6894587963573</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>56.0012485709799</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.4725364634484</v>
+        <v>15.35383743468674</v>
       </c>
       <c r="K16" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>253.4605344048249</v>
+        <v>222.7728388785536</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>261.3182950866722</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>257.5545344939003</v>
       </c>
       <c r="O16" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.83124255647918</v>
+        <v>18.8953217985019</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>366.8571399654358</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2349456875104</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>212.8813566063031</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.9185847188385</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>24.30707513914119</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>253.4605344048245</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
         <v>278.4750710187352</v>
@@ -9482,10 +9482,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>366.8571399654357</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>212.8813566063031</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>173.7447855087921</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9640,13 +9640,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>439.0629838362181</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>269.3133530402068</v>
       </c>
       <c r="M23" t="n">
-        <v>281.6859547891628</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5176150018526</v>
+        <v>7.038618344042021</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>308.2937173411327</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>409.4357234907226</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>216.8681616026325</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>436.1270745093622</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>377.1649514469729</v>
+        <v>281.6859547891634</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>7.038618344042021</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>48.23021528647332</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>388.4853864439762</v>
+        <v>24.14983199082681</v>
       </c>
       <c r="P27" t="n">
-        <v>436.127074509362</v>
+        <v>436.1270745093622</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10114,16 +10114,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>439.0629838362181</v>
       </c>
       <c r="L29" t="n">
-        <v>384.4110299612285</v>
+        <v>269.3133530402068</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>228.4863102573852</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>7.038618344042021</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>24.14983199082684</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>436.127074509362</v>
+        <v>216.8681616026325</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>24.30707513914119</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>377.1649514469739</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>281.6859547891624</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>7.038618344042021</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>71.79152005621279</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>388.4853864439762</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>263.5748913691517</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>180.9252329930817</v>
+        <v>224.4030963794569</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>279.2102521580165</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>102.5176150018526</v>
+        <v>7.038618344042021</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>39.5205039336802</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>366.8571399654359</v>
+        <v>259.5880863728224</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>330.92629670615</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>24.30707513914119</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>252.8950126489803</v>
       </c>
       <c r="P38" t="n">
-        <v>305.939283349619</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.196201801479</v>
+        <v>38.92874949149275</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>7.038618344042021</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>259.5880863728224</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>212.8813566063035</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>24.30707513914119</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>7.038618344039264</v>
+        <v>7.038618344039035</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>181.6894587963547</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>31.69417343183594</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>24.30707513914119</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>15.35383743468672</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>261.3182950866715</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>226.8668389676269</v>
       </c>
       <c r="O43" t="n">
-        <v>245.2412270179611</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.9350150692923</v>
+        <v>18.89532179850187</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.668906918367005e-12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>7.038618344042021</v>
+        <v>7.038618344039095</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>226.5361356310425</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.860052931831518</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>24.30707513914119</v>
+        <v>56.00124857097713</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>15.35383743468672</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>253.4605344048249</v>
+        <v>222.7728388785522</v>
       </c>
       <c r="M46" t="n">
-        <v>261.3182950866716</v>
+        <v>261.3182950866715</v>
       </c>
       <c r="N46" t="n">
-        <v>21.04163096005115</v>
+        <v>257.5545344938996</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>18.89532179850187</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>107.3914033729645</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,7 +23269,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>92.72964586877515</v>
       </c>
       <c r="G11" t="n">
         <v>406.9123771362669</v>
@@ -23278,7 +23278,7 @@
         <v>299.1435630876019</v>
       </c>
       <c r="I11" t="n">
-        <v>55.27060472689222</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0257022040986</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>18.68989298696994</v>
       </c>
       <c r="W11" t="n">
-        <v>47.29319646484873</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>65.56223079972705</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.52995377205821</v>
+        <v>174.5063652724823</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>126.7711188149318</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>112.5246600068256</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>8.720165336992665</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8879308598484</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H13" t="n">
-        <v>105.8277114670278</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I13" t="n">
-        <v>103.182400879764</v>
+        <v>98.86675296495319</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>79.92859893709536</v>
       </c>
       <c r="S13" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>229.301066964029</v>
@@ -23475,13 +23475,13 @@
         <v>282.5325639126531</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>78.5618414180741</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>92.72964586877521</v>
+        <v>130.8731509761876</v>
       </c>
       <c r="G14" t="n">
-        <v>86.91652891972004</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H14" t="n">
-        <v>72.5618247053597</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>55.27060472689222</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>47.29319646484856</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>65.56223079972688</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>72.52995377205804</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.1655939461972</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.862643306510179</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>112.5246600068256</v>
       </c>
       <c r="T15" t="n">
-        <v>167.0585685392121</v>
+        <v>170.6446426827978</v>
       </c>
       <c r="U15" t="n">
         <v>207.8879308598484</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>68.05777071236351</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.065516932342433</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>79.92859893709536</v>
       </c>
       <c r="S16" t="n">
         <v>184.2250660264325</v>
@@ -23709,13 +23709,13 @@
         <v>229.301066964029</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23746,10 +23746,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>406.9123771362669</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>299.1435630876019</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.761460358254155</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>334.5966366627183</v>
       </c>
     </row>
     <row r="18">
@@ -23816,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>90.8841550427376</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>80.62185019911821</v>
       </c>
       <c r="G18" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>76.46594728151749</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.862643306510172</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>112.5246600068256</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23898,7 +23898,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>128.7533985541328</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>79.92859893709533</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>25.07707809680403</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23974,22 +23974,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>357.5219860084187</v>
+        <v>20.07879033304653</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>55.2706047268922</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24056,10 +24056,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>108.8371192666456</v>
       </c>
       <c r="F21" t="n">
-        <v>108.8371192666456</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.68991158733563</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>79.92859893709533</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5325639126531</v>
+        <v>10.05215181793886</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,25 +24208,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>408.1792813205892</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I23" t="n">
-        <v>55.2706047268922</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>116.5673851837092</v>
+        <v>5.494557065402915</v>
       </c>
       <c r="T23" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.45410336970444</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.4738572861381</v>
+        <v>40.63506926877116</v>
       </c>
       <c r="I25" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>167.7713806829895</v>
       </c>
       <c r="C26" t="n">
-        <v>260.2254455802627</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>406.9123771362669</v>
@@ -24463,7 +24463,7 @@
         <v>299.1435630876019</v>
       </c>
       <c r="I26" t="n">
-        <v>55.2706047268922</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>22.31054380499114</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>79.92859893709533</v>
       </c>
       <c r="S28" t="n">
         <v>184.2250660264325</v>
       </c>
       <c r="T28" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5325639126531</v>
@@ -24663,7 +24663,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>256.6175747059559</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>190.8550032096985</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H29" t="n">
         <v>299.1435630876019</v>
       </c>
       <c r="I29" t="n">
-        <v>55.2706047268922</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0257022040986</v>
@@ -24742,7 +24742,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>136.502735729764</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>79.92859893709533</v>
+        <v>73.2616362015675</v>
       </c>
       <c r="S31" t="n">
         <v>184.2250660264325</v>
@@ -24894,10 +24894,10 @@
         <v>229.301066964029</v>
       </c>
       <c r="U31" t="n">
-        <v>152.5110431198135</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>299.1435630876019</v>
       </c>
       <c r="I32" t="n">
-        <v>55.2706047268922</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>41.74307858079885</v>
+        <v>147.5716885862724</v>
       </c>
       <c r="U32" t="n">
         <v>253.0257022040986</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>169.3827023067995</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6211146840253</v>
+        <v>103.2554250136178</v>
       </c>
       <c r="H34" t="n">
         <v>145.4738572861381</v>
       </c>
       <c r="I34" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>169.4239461270999</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>214.589988260317</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>76.46594728151749</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.862643306510172</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.6446426827978</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>77.47752141284636</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>144.3832243436997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25326,13 +25326,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6211146840253</v>
+        <v>71.71927954934155</v>
       </c>
       <c r="H37" t="n">
         <v>145.4738572861381</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>79.92859893709533</v>
       </c>
       <c r="S37" t="n">
-        <v>89.20916468217494</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>365.1790149950183</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0257022040986</v>
+        <v>232.9517177487891</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25475,16 +25475,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.6446426827978</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>50.2348177541503</v>
       </c>
       <c r="X39" t="n">
-        <v>28.69938131301046</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>35.70616285505866</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>55.57779762295355</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>114.6374551451491</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>69.24789826555246</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>78.56184141807466</v>
       </c>
       <c r="F41" t="n">
-        <v>92.72964586877572</v>
+        <v>92.72964586877578</v>
       </c>
       <c r="G41" t="n">
-        <v>86.91652891972055</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H41" t="n">
         <v>299.1435630876019</v>
       </c>
       <c r="I41" t="n">
-        <v>35.00626548797709</v>
+        <v>55.2706047268922</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>37.39491825072498</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>117.7255881187514</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>112.5246600068256</v>
+        <v>24.01678370214556</v>
       </c>
       <c r="T42" t="n">
-        <v>170.6446426827978</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8879308598484</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6211146840253</v>
+        <v>8.757789798815764</v>
       </c>
       <c r="H43" t="n">
         <v>145.4738572861381</v>
       </c>
       <c r="I43" t="n">
-        <v>48.83715451439408</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>79.92859893709533</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>69.24789826555246</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>78.56184141807461</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>92.72964586877578</v>
       </c>
       <c r="G44" t="n">
-        <v>406.9123771362669</v>
+        <v>125.0600340271332</v>
       </c>
       <c r="H44" t="n">
-        <v>25.85352164458823</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I44" t="n">
         <v>55.2706047268922</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U44" t="n">
         <v>253.0257022040986</v>
@@ -25930,10 +25930,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>65.5622307997275</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.5299537720586</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25949,10 +25949,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
@@ -25961,10 +25961,10 @@
         <v>117.7255881187514</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I45" t="n">
-        <v>9.862643306510172</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>112.5246600068256</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>109.8994568363615</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8879308598484</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>117.1935202352556</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>79.92859893709533</v>
       </c>
       <c r="S46" t="n">
-        <v>101.2178597996241</v>
+        <v>54.18077491513642</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>385587.4793838528</v>
+        <v>385587.479383853</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>385587.479383853</v>
+        <v>385587.4793838532</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>497460.0830343738</v>
+        <v>497460.0830343739</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>567545.3911412832</v>
+        <v>567545.3911412831</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>567545.3911412829</v>
+        <v>567545.391141283</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>385587.4793838526</v>
+        <v>385587.4793838524</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>385587.4793838526</v>
+        <v>385587.4793838524</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>503717.8196812076</v>
       </c>
       <c r="C2" t="n">
-        <v>503717.8196812077</v>
+        <v>503717.8196812075</v>
       </c>
       <c r="D2" t="n">
         <v>503717.8196812078</v>
       </c>
       <c r="E2" t="n">
-        <v>248501.8915986582</v>
+        <v>248501.8915986583</v>
       </c>
       <c r="F2" t="n">
-        <v>248501.8915986582</v>
+        <v>248501.8915986583</v>
       </c>
       <c r="G2" t="n">
-        <v>304155.6940187152</v>
+        <v>304155.6940187153</v>
       </c>
       <c r="H2" t="n">
-        <v>304155.6940187152</v>
+        <v>304155.6940187153</v>
       </c>
       <c r="I2" t="n">
-        <v>339021.3694625049</v>
+        <v>339021.3694625048</v>
       </c>
       <c r="J2" t="n">
         <v>339021.3694625048</v>
       </c>
       <c r="K2" t="n">
-        <v>339021.3694625048</v>
+        <v>339021.3694625046</v>
       </c>
       <c r="L2" t="n">
-        <v>339021.369462505</v>
+        <v>339021.3694625049</v>
       </c>
       <c r="M2" t="n">
+        <v>304155.6940187154</v>
+      </c>
+      <c r="N2" t="n">
         <v>304155.6940187152</v>
       </c>
-      <c r="N2" t="n">
-        <v>304155.6940187153</v>
-      </c>
       <c r="O2" t="n">
-        <v>248501.8915986581</v>
+        <v>248501.8915986579</v>
       </c>
       <c r="P2" t="n">
-        <v>248501.891598658</v>
+        <v>248501.8915986579</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27975.09603420802</v>
+        <v>27975.09603420803</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53527.79072728461</v>
+        <v>53527.79072728457</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>377542.8357541459</v>
       </c>
       <c r="E4" t="n">
-        <v>13112.12687048868</v>
+        <v>13112.12687048869</v>
       </c>
       <c r="F4" t="n">
         <v>13112.1268704887</v>
       </c>
       <c r="G4" t="n">
+        <v>41625.70646244007</v>
+      </c>
+      <c r="H4" t="n">
         <v>41625.70646244006</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41625.70646244007</v>
       </c>
       <c r="I4" t="n">
         <v>59488.73052484189</v>
       </c>
       <c r="J4" t="n">
-        <v>59488.73052484186</v>
+        <v>59488.73052484189</v>
       </c>
       <c r="K4" t="n">
-        <v>59488.73052484186</v>
+        <v>59488.73052484189</v>
       </c>
       <c r="L4" t="n">
-        <v>59488.73052484186</v>
+        <v>59488.7305248419</v>
       </c>
       <c r="M4" t="n">
-        <v>41625.70646244008</v>
+        <v>41625.70646244007</v>
       </c>
       <c r="N4" t="n">
-        <v>41625.70646244007</v>
+        <v>41625.70646244006</v>
       </c>
       <c r="O4" t="n">
-        <v>13112.12687048856</v>
+        <v>13112.12687048855</v>
       </c>
       <c r="P4" t="n">
-        <v>13112.12687048856</v>
+        <v>13112.12687048855</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30945.20358402899</v>
+        <v>30945.203584029</v>
       </c>
       <c r="F5" t="n">
         <v>30945.203584029</v>
@@ -26490,22 +26490,22 @@
         <v>39476.72064756008</v>
       </c>
       <c r="I5" t="n">
-        <v>45872.92793799539</v>
+        <v>45872.9279379954</v>
       </c>
       <c r="J5" t="n">
-        <v>45872.92793799538</v>
+        <v>45872.9279379954</v>
       </c>
       <c r="K5" t="n">
-        <v>45872.92793799538</v>
+        <v>45872.9279379954</v>
       </c>
       <c r="L5" t="n">
-        <v>45872.92793799538</v>
+        <v>45872.9279379954</v>
       </c>
       <c r="M5" t="n">
-        <v>39476.72064756009</v>
+        <v>39476.72064756008</v>
       </c>
       <c r="N5" t="n">
-        <v>39476.72064756009</v>
+        <v>39476.72064756008</v>
       </c>
       <c r="O5" t="n">
         <v>30945.20358402897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92547.3839270618</v>
+        <v>92543.05435927532</v>
       </c>
       <c r="C6" t="n">
-        <v>92547.38392706186</v>
+        <v>92543.05435927527</v>
       </c>
       <c r="D6" t="n">
-        <v>92547.38392706198</v>
+        <v>92543.05435927544</v>
       </c>
       <c r="E6" t="n">
-        <v>-314524.0871503832</v>
+        <v>-315439.9021756073</v>
       </c>
       <c r="F6" t="n">
-        <v>204444.5611441405</v>
+        <v>203528.7461189165</v>
       </c>
       <c r="G6" t="n">
-        <v>184593.3844357229</v>
+        <v>183876.3329905705</v>
       </c>
       <c r="H6" t="n">
-        <v>223053.266908715</v>
+        <v>222336.2154635627</v>
       </c>
       <c r="I6" t="n">
-        <v>205684.6149654597</v>
+        <v>205092.0837897492</v>
       </c>
       <c r="J6" t="n">
-        <v>233659.7109996676</v>
+        <v>233067.1798239572</v>
       </c>
       <c r="K6" t="n">
-        <v>233659.7109996676</v>
+        <v>233067.179823957</v>
       </c>
       <c r="L6" t="n">
-        <v>233659.7109996678</v>
+        <v>233067.1798239572</v>
       </c>
       <c r="M6" t="n">
-        <v>169525.4761814305</v>
+        <v>168808.4247362782</v>
       </c>
       <c r="N6" t="n">
-        <v>223053.2669087151</v>
+        <v>222336.2154635626</v>
       </c>
       <c r="O6" t="n">
-        <v>204444.5611441405</v>
+        <v>203528.7461189163</v>
       </c>
       <c r="P6" t="n">
-        <v>204444.5611441405</v>
+        <v>203528.7461189163</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>319.9958482165467</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="F4" t="n">
         <v>319.9958482165468</v>
@@ -26810,28 +26810,28 @@
         <v>460.3168525509396</v>
       </c>
       <c r="I4" t="n">
-        <v>565.5176303541518</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="J4" t="n">
-        <v>565.5176303541517</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="K4" t="n">
-        <v>565.5176303541517</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="L4" t="n">
-        <v>565.5176303541517</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="M4" t="n">
-        <v>460.3168525509397</v>
+        <v>460.3168525509396</v>
       </c>
       <c r="N4" t="n">
         <v>460.3168525509396</v>
       </c>
       <c r="O4" t="n">
-        <v>319.9958482165463</v>
+        <v>319.9958482165462</v>
       </c>
       <c r="P4" t="n">
-        <v>319.9958482165463</v>
+        <v>319.9958482165462</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>105.2007778032123</v>
+        <v>105.2007778032124</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.7950704133345</v>
+        <v>214.7950704133343</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>62.14648951840265</v>
+        <v>62.14648951840314</v>
       </c>
       <c r="K11" t="n">
         <v>126.4546465179338</v>
@@ -35497,16 +35497,16 @@
         <v>156.0819068634291</v>
       </c>
       <c r="M12" t="n">
-        <v>194.8492782622619</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="N12" t="n">
         <v>209.4665802750704</v>
       </c>
       <c r="O12" t="n">
-        <v>177.0322439101755</v>
+        <v>233.5751327522477</v>
       </c>
       <c r="P12" t="n">
-        <v>311.0800146411463</v>
+        <v>129.3905558447896</v>
       </c>
       <c r="Q12" t="n">
         <v>53.71893001299803</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>26.56042854144297</v>
+        <v>46.58078933193966</v>
       </c>
       <c r="L13" t="n">
         <v>307.0838582058515</v>
       </c>
       <c r="M13" t="n">
-        <v>319.9958482165467</v>
+        <v>58.67755312987468</v>
       </c>
       <c r="N13" t="n">
-        <v>289.3081526902751</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="O13" t="n">
         <v>298.6827826110555</v>
       </c>
       <c r="P13" t="n">
-        <v>25.42319742054849</v>
+        <v>236.0334361904526</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>206.3483301649733</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K15" t="n">
         <v>93.45971258550371</v>
@@ -35749,7 +35749,7 @@
         <v>53.71893001299803</v>
       </c>
       <c r="R15" t="n">
-        <v>46.70672976651927</v>
+        <v>31.69417343183869</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.11869902876166</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>193.0807040391009</v>
+        <v>26.56042854144297</v>
       </c>
       <c r="L16" t="n">
-        <v>307.0838582058515</v>
+        <v>276.3961626795803</v>
       </c>
       <c r="M16" t="n">
-        <v>58.67755312987468</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="N16" t="n">
-        <v>62.44131372264658</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="O16" t="n">
         <v>298.6827826110555</v>
       </c>
       <c r="P16" t="n">
-        <v>236.0334361904526</v>
+        <v>25.42319742054849</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.93592075797729</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.65887136861603</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K18" t="n">
-        <v>460.3168525509396</v>
+        <v>93.45971258550377</v>
       </c>
       <c r="L18" t="n">
-        <v>460.3168525509396</v>
+        <v>156.0819068634292</v>
       </c>
       <c r="M18" t="n">
         <v>194.849278262262</v>
@@ -35977,16 +35977,16 @@
         <v>209.4665802750704</v>
       </c>
       <c r="O18" t="n">
-        <v>177.0322439101756</v>
+        <v>389.9136005164787</v>
       </c>
       <c r="P18" t="n">
         <v>129.3905558447897</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6375147318365</v>
+        <v>381.4394988809227</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>46.70672976651929</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>193.080704039101</v>
       </c>
       <c r="L19" t="n">
-        <v>307.0838582058512</v>
+        <v>307.0838582058516</v>
       </c>
       <c r="M19" t="n">
         <v>337.1526241486099</v>
@@ -36202,10 +36202,10 @@
         <v>221.3608864996538</v>
       </c>
       <c r="K21" t="n">
-        <v>460.3168525509396</v>
+        <v>93.45971258550377</v>
       </c>
       <c r="L21" t="n">
-        <v>156.0819068634292</v>
+        <v>368.9632634697323</v>
       </c>
       <c r="M21" t="n">
         <v>194.849278262262</v>
@@ -36217,10 +36217,10 @@
         <v>177.0322439101756</v>
       </c>
       <c r="P21" t="n">
-        <v>303.1353413535818</v>
+        <v>129.3905558447897</v>
       </c>
       <c r="Q21" t="n">
-        <v>53.71893001299806</v>
+        <v>381.4394988809227</v>
       </c>
       <c r="R21" t="n">
         <v>46.70672976651929</v>
@@ -36360,13 +36360,13 @@
         <v>325.9372091868382</v>
       </c>
       <c r="K23" t="n">
-        <v>126.4546465179338</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="L23" t="n">
-        <v>181.1066003929232</v>
+        <v>450.4199534331301</v>
       </c>
       <c r="M23" t="n">
-        <v>503.9950082208738</v>
+        <v>222.309053431711</v>
       </c>
       <c r="N23" t="n">
         <v>228.9355144607124</v>
@@ -36378,10 +36378,10 @@
         <v>154.3775692013207</v>
       </c>
       <c r="Q23" t="n">
-        <v>415.5139396902089</v>
+        <v>84.30255426075757</v>
       </c>
       <c r="R23" t="n">
-        <v>95.47899665781058</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.65887136861603</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K24" t="n">
-        <v>401.7534299266364</v>
+        <v>506.0254823251264</v>
       </c>
       <c r="L24" t="n">
-        <v>565.5176303541518</v>
+        <v>156.0819068634292</v>
       </c>
       <c r="M24" t="n">
         <v>194.849278262262</v>
       </c>
       <c r="N24" t="n">
-        <v>209.4665802750704</v>
+        <v>426.3347418777029</v>
       </c>
       <c r="O24" t="n">
         <v>177.0322439101756</v>
       </c>
       <c r="P24" t="n">
-        <v>565.5176303541518</v>
+        <v>129.3905558447897</v>
       </c>
       <c r="Q24" t="n">
-        <v>53.71893001299806</v>
+        <v>381.4394988809227</v>
       </c>
       <c r="R24" t="n">
         <v>46.70672976651929</v>
@@ -36612,13 +36612,13 @@
         <v>207.4218399019593</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5425206482936</v>
+        <v>436.063523990484</v>
       </c>
       <c r="Q26" t="n">
         <v>415.5139396902089</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>95.47899665781058</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>24.65887136861603</v>
       </c>
       <c r="K27" t="n">
-        <v>141.6899278719771</v>
+        <v>506.0254823251264</v>
       </c>
       <c r="L27" t="n">
         <v>156.0819068634292</v>
@@ -36688,10 +36688,10 @@
         <v>209.4665802750704</v>
       </c>
       <c r="O27" t="n">
-        <v>565.5176303541517</v>
+        <v>201.1820759010024</v>
       </c>
       <c r="P27" t="n">
-        <v>565.5176303541517</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="Q27" t="n">
         <v>381.4394988809227</v>
@@ -36834,16 +36834,16 @@
         <v>325.9372091868382</v>
       </c>
       <c r="K29" t="n">
-        <v>126.4546465179338</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="L29" t="n">
-        <v>565.5176303541517</v>
+        <v>450.4199534331301</v>
       </c>
       <c r="M29" t="n">
         <v>222.309053431711</v>
       </c>
       <c r="N29" t="n">
-        <v>457.4218247180976</v>
+        <v>228.9355144607124</v>
       </c>
       <c r="O29" t="n">
         <v>207.4218399019593</v>
@@ -36855,7 +36855,7 @@
         <v>84.30255426075757</v>
       </c>
       <c r="R29" t="n">
-        <v>95.47899665781058</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>48.80870335944287</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K30" t="n">
         <v>506.0254823251264</v>
@@ -36928,13 +36928,13 @@
         <v>177.0322439101756</v>
       </c>
       <c r="P30" t="n">
-        <v>565.5176303541517</v>
+        <v>346.2587174474222</v>
       </c>
       <c r="Q30" t="n">
         <v>381.4394988809227</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>46.70672976651929</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>325.9372091868382</v>
       </c>
       <c r="K32" t="n">
-        <v>126.4546465179338</v>
+        <v>503.6195979649078</v>
       </c>
       <c r="L32" t="n">
         <v>181.1066003929232</v>
@@ -37086,13 +37086,13 @@
         <v>207.4218399019593</v>
       </c>
       <c r="P32" t="n">
-        <v>436.0635239904831</v>
+        <v>154.3775692013207</v>
       </c>
       <c r="Q32" t="n">
         <v>415.5139396902089</v>
       </c>
       <c r="R32" t="n">
-        <v>95.47899665781058</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>96.45039142482882</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K33" t="n">
         <v>506.0254823251264</v>
@@ -37162,10 +37162,10 @@
         <v>209.4665802750704</v>
       </c>
       <c r="O33" t="n">
-        <v>565.5176303541517</v>
+        <v>177.0322439101756</v>
       </c>
       <c r="P33" t="n">
-        <v>129.3905558447897</v>
+        <v>392.9654472139414</v>
       </c>
       <c r="Q33" t="n">
         <v>381.4394988809227</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>243.0717225114848</v>
+        <v>286.5495858978601</v>
       </c>
       <c r="K35" t="n">
         <v>126.4546465179338</v>
       </c>
       <c r="L35" t="n">
-        <v>460.3168525509397</v>
+        <v>181.1066003929232</v>
       </c>
       <c r="M35" t="n">
         <v>222.309053431711</v>
@@ -37326,10 +37326,10 @@
         <v>154.3775692013207</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.30255426075757</v>
+        <v>415.5139396902089</v>
       </c>
       <c r="R35" t="n">
-        <v>95.47899665781058</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.17937530229624</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K36" t="n">
-        <v>460.3168525509397</v>
+        <v>353.0477989583262</v>
       </c>
       <c r="L36" t="n">
         <v>156.0819068634292</v>
@@ -37402,13 +37402,13 @@
         <v>177.0322439101756</v>
       </c>
       <c r="P36" t="n">
-        <v>460.3168525509397</v>
+        <v>129.3905558447897</v>
       </c>
       <c r="Q36" t="n">
-        <v>53.71893001299806</v>
+        <v>381.4394988809227</v>
       </c>
       <c r="R36" t="n">
-        <v>46.70672976651929</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>62.14648951840317</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K38" t="n">
         <v>126.4546465179338</v>
@@ -37557,16 +37557,16 @@
         <v>228.9355144607124</v>
       </c>
       <c r="O38" t="n">
-        <v>207.4218399019593</v>
+        <v>460.3168525509396</v>
       </c>
       <c r="P38" t="n">
-        <v>460.3168525509396</v>
+        <v>154.3775692013207</v>
       </c>
       <c r="Q38" t="n">
-        <v>238.4987560622366</v>
+        <v>123.2313037522503</v>
       </c>
       <c r="R38" t="n">
-        <v>95.47899665781058</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>221.3608864996538</v>
       </c>
       <c r="K39" t="n">
-        <v>93.45971258550377</v>
+        <v>353.0477989583262</v>
       </c>
       <c r="L39" t="n">
         <v>156.0819068634292</v>
@@ -37639,13 +37639,13 @@
         <v>177.0322439101756</v>
       </c>
       <c r="P39" t="n">
-        <v>342.2719124510932</v>
+        <v>129.3905558447897</v>
       </c>
       <c r="Q39" t="n">
         <v>381.4394988809227</v>
       </c>
       <c r="R39" t="n">
-        <v>46.70672976651929</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>84.30255426075757</v>
       </c>
       <c r="R41" t="n">
-        <v>-2.756044550827055e-12</v>
+        <v>-2.985714930062643e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.65887136861603</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K42" t="n">
         <v>93.45971258550377</v>
@@ -37876,13 +37876,13 @@
         <v>177.0322439101756</v>
       </c>
       <c r="P42" t="n">
-        <v>311.0800146411444</v>
+        <v>129.3905558447897</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.71893001299806</v>
+        <v>85.41310344483399</v>
       </c>
       <c r="R42" t="n">
-        <v>46.70672976651929</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>37.11869902876168</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>193.080704039101</v>
+        <v>26.560428541443</v>
       </c>
       <c r="L43" t="n">
         <v>307.0838582058516</v>
       </c>
       <c r="M43" t="n">
-        <v>58.67755312987471</v>
+        <v>319.9958482165462</v>
       </c>
       <c r="N43" t="n">
-        <v>62.44131372264664</v>
+        <v>289.3081526902736</v>
       </c>
       <c r="O43" t="n">
-        <v>289.57901009824</v>
+        <v>298.6827826110555</v>
       </c>
       <c r="P43" t="n">
-        <v>236.0334361904526</v>
+        <v>25.42319742054852</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.03969327079041</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>62.14648951840317</v>
       </c>
       <c r="K44" t="n">
-        <v>126.4546465179311</v>
+        <v>126.4546465179338</v>
       </c>
       <c r="L44" t="n">
         <v>181.1066003929232</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.65887136861603</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K45" t="n">
-        <v>319.9958482165463</v>
+        <v>93.45971258550377</v>
       </c>
       <c r="L45" t="n">
         <v>156.0819068634292</v>
@@ -38113,13 +38113,13 @@
         <v>177.0322439101756</v>
       </c>
       <c r="P45" t="n">
-        <v>131.2506087766212</v>
+        <v>129.3905558447897</v>
       </c>
       <c r="Q45" t="n">
         <v>53.71893001299806</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>31.69417343183593</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>193.080704039101</v>
+        <v>26.560428541443</v>
       </c>
       <c r="L46" t="n">
-        <v>307.0838582058516</v>
+        <v>276.3961626795789</v>
       </c>
       <c r="M46" t="n">
-        <v>319.9958482165463</v>
+        <v>319.9958482165462</v>
       </c>
       <c r="N46" t="n">
-        <v>83.48294468269779</v>
+        <v>319.9958482165462</v>
       </c>
       <c r="O46" t="n">
-        <v>44.33778308027884</v>
+        <v>298.6827826110555</v>
       </c>
       <c r="P46" t="n">
-        <v>236.0334361904526</v>
+        <v>25.42319742054852</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.03969327079041</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
